--- a/south-korea-seoul-election-choropleth-park-20170420/south-korea-seoul-election-choropleth-park-20170420.xlsx
+++ b/south-korea-seoul-election-choropleth-park-20170420/south-korea-seoul-election-choropleth-park-20170420.xlsx
@@ -17,27 +17,48 @@
     <t>key</t>
   </si>
   <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>headline</t>
+  </si>
+  <si>
+    <t>Seoul: 2012 Presidential Election</t>
+  </si>
+  <si>
+    <t>subhed</t>
+  </si>
+  <si>
+    <t>Darker shades represent higher vote share by candidates in the capital city.</t>
+  </si>
+  <si>
+    <t>footnote</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>&lt;a href="http://www.nec.go.kr/engvote_2013/main/main.jsp"&gt;National Election Commission of Korea&lt;/a&gt;</t>
+  </si>
+  <si>
     <t>koreacombo</t>
   </si>
   <si>
-    <t>value</t>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
     <t>voters</t>
   </si>
   <si>
-    <t>headline</t>
-  </si>
-  <si>
     <t>votes</t>
   </si>
   <si>
     <t>parkgeunhye</t>
   </si>
   <si>
-    <t>Seoul: 2012 Presidential Election</t>
-  </si>
-  <si>
     <t>moonjaein</t>
   </si>
   <si>
@@ -53,12 +74,6 @@
     <t>turnoutpct</t>
   </si>
   <si>
-    <t>subhed</t>
-  </si>
-  <si>
-    <t>Darker shades represent higher vote share by candidates in the capital city.</t>
-  </si>
-  <si>
     <t>winner</t>
   </si>
   <si>
@@ -74,25 +89,10 @@
     <t>englishcombo</t>
   </si>
   <si>
-    <t>footnote</t>
-  </si>
-  <si>
     <t>강원도-강릉시</t>
   </si>
   <si>
-    <t>source</t>
-  </si>
-  <si>
     <t>175077</t>
-  </si>
-  <si>
-    <t>&lt;a href="http://www.nec.go.kr/engvote_2013/main/main.jsp"&gt;National Election Commission of Korea&lt;/a&gt;</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>Matt Stiles/&lt;a href="http://www.thedailyviz.com"&gt;The Daily Viz&lt;/a&gt;</t>
   </si>
   <si>
     <t>129776</t>
@@ -3845,17 +3845,17 @@
       <sz val="14.0"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="14.0"/>
     </font>
     <font>
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -3870,14 +3870,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFDCE6F1"/>
-        <bgColor rgb="FFDCE6F1"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFDCE6F1"/>
+        <bgColor rgb="FFDCE6F1"/>
       </patternFill>
     </fill>
     <fill>
@@ -3888,16 +3888,8 @@
     </fill>
   </fills>
   <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color rgb="FF95B3D7"/>
       </bottom>
@@ -3908,56 +3900,56 @@
   </cellStyleXfs>
   <cellXfs count="18">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3968,15 +3960,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3991,582 +3986,582 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+    </row>
+    <row r="2" ht="33.0" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="3"/>
-      <c r="Z1" s="3"/>
-    </row>
-    <row r="2" ht="33.0" customHeight="1">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+    </row>
+    <row r="3" ht="33.0" customHeight="1">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+    </row>
+    <row r="4" ht="33.0" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+    </row>
+    <row r="5" ht="33.0" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="7"/>
-      <c r="W2" s="7"/>
-      <c r="X2" s="7"/>
-      <c r="Y2" s="7"/>
-      <c r="Z2" s="7"/>
-    </row>
-    <row r="3" ht="33.0" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="7"/>
-      <c r="Q3" s="7"/>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
-      <c r="U3" s="7"/>
-      <c r="V3" s="7"/>
-      <c r="W3" s="7"/>
-      <c r="X3" s="7"/>
-      <c r="Y3" s="7"/>
-      <c r="Z3" s="7"/>
-    </row>
-    <row r="4" ht="33.0" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="T4" s="7"/>
-      <c r="U4" s="7"/>
-      <c r="V4" s="7"/>
-      <c r="W4" s="7"/>
-      <c r="X4" s="7"/>
-      <c r="Y4" s="7"/>
-      <c r="Z4" s="7"/>
-    </row>
-    <row r="5" ht="33.0" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
-      <c r="U5" s="7"/>
-      <c r="V5" s="7"/>
-      <c r="W5" s="7"/>
-      <c r="X5" s="7"/>
-      <c r="Y5" s="7"/>
-      <c r="Z5" s="7"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
     </row>
     <row r="6" ht="33.0" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="7"/>
-      <c r="T6" s="7"/>
-      <c r="U6" s="7"/>
-      <c r="V6" s="7"/>
-      <c r="W6" s="7"/>
-      <c r="X6" s="7"/>
-      <c r="Y6" s="7"/>
-      <c r="Z6" s="7"/>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
     </row>
     <row r="7" ht="33.0" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="7"/>
-      <c r="T7" s="7"/>
-      <c r="U7" s="7"/>
-      <c r="V7" s="7"/>
-      <c r="W7" s="7"/>
-      <c r="X7" s="7"/>
-      <c r="Y7" s="7"/>
-      <c r="Z7" s="7"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
     </row>
     <row r="8" ht="33.0" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
     </row>
     <row r="9" ht="33.0" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="7"/>
-      <c r="T9" s="7"/>
-      <c r="U9" s="7"/>
-      <c r="V9" s="7"/>
-      <c r="W9" s="7"/>
-      <c r="X9" s="7"/>
-      <c r="Y9" s="7"/>
-      <c r="Z9" s="7"/>
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
     </row>
     <row r="10" ht="33.0" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-      <c r="U10" s="7"/>
-      <c r="V10" s="7"/>
-      <c r="W10" s="7"/>
-      <c r="X10" s="7"/>
-      <c r="Y10" s="7"/>
-      <c r="Z10" s="7"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
     </row>
     <row r="11" ht="33.0" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="7"/>
-      <c r="T11" s="7"/>
-      <c r="U11" s="7"/>
-      <c r="V11" s="7"/>
-      <c r="W11" s="7"/>
-      <c r="X11" s="7"/>
-      <c r="Y11" s="7"/>
-      <c r="Z11" s="7"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
     </row>
     <row r="12" ht="33.0" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7"/>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="7"/>
-      <c r="Z12" s="7"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
     </row>
     <row r="13" ht="33.0" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
     </row>
     <row r="14" ht="33.0" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
     </row>
     <row r="15" ht="33.0" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
-      <c r="T15" s="7"/>
-      <c r="U15" s="7"/>
-      <c r="V15" s="7"/>
-      <c r="W15" s="7"/>
-      <c r="X15" s="7"/>
-      <c r="Y15" s="7"/>
-      <c r="Z15" s="7"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
     </row>
     <row r="16" ht="33.0" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-      <c r="P16" s="7"/>
-      <c r="Q16" s="7"/>
-      <c r="R16" s="7"/>
-      <c r="S16" s="7"/>
-      <c r="T16" s="7"/>
-      <c r="U16" s="7"/>
-      <c r="V16" s="7"/>
-      <c r="W16" s="7"/>
-      <c r="X16" s="7"/>
-      <c r="Y16" s="7"/>
-      <c r="Z16" s="7"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
     </row>
     <row r="17" ht="33.0" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-      <c r="U17" s="7"/>
-      <c r="V17" s="7"/>
-      <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
-      <c r="Z17" s="7"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
     </row>
     <row r="18" ht="33.0" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-      <c r="P18" s="7"/>
-      <c r="Q18" s="7"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7"/>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="7"/>
-      <c r="Y18" s="7"/>
-      <c r="Z18" s="7"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
     </row>
     <row r="19" ht="33.0" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
     </row>
     <row r="20" ht="33.0" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-      <c r="P20" s="7"/>
-      <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
-      <c r="S20" s="7"/>
-      <c r="T20" s="7"/>
-      <c r="U20" s="7"/>
-      <c r="V20" s="7"/>
-      <c r="W20" s="7"/>
-      <c r="X20" s="7"/>
-      <c r="Y20" s="7"/>
-      <c r="Z20" s="7"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -4575,6 +4570,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4596,47 +4594,47 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="6" t="s">
+      <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="I1" s="9" t="s">
         <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>24</v>
       </c>
       <c r="O1" s="10"/>
       <c r="P1" s="10"/>
@@ -4652,11 +4650,11 @@
       <c r="Z1" s="10"/>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>21</v>
+      <c r="A2" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>27</v>
@@ -4679,24 +4677,24 @@
       <c r="I2" s="12">
         <v>73.86</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="6">
         <v>32030.0</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="11" t="s">
@@ -4723,24 +4721,24 @@
       <c r="I3" s="12">
         <v>74.36</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="2">
+      <c r="K3" s="6">
         <v>32400.0</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B4" s="11" t="s">
@@ -4767,24 +4765,24 @@
       <c r="I4" s="12">
         <v>73.56</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="J4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="6">
         <v>32040.0</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="N4" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="11" t="s">
@@ -4811,24 +4809,24 @@
       <c r="I5" s="12">
         <v>72.66</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="6">
         <v>32070.0</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="L5" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="N5" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B6" s="11" t="s">
@@ -4855,24 +4853,24 @@
       <c r="I6" s="12">
         <v>71.62</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="2">
+      <c r="K6" s="6">
         <v>32060.0</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="L6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="N6" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="6" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="11" t="s">
@@ -4899,24 +4897,24 @@
       <c r="I7" s="12">
         <v>75.38</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="2">
+      <c r="K7" s="6">
         <v>32380.0</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -4943,24 +4941,24 @@
       <c r="I8" s="12">
         <v>76.14</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="6">
         <v>32410.0</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>62</v>
       </c>
       <c r="B9" s="11" t="s">
@@ -4987,24 +4985,24 @@
       <c r="I9" s="12">
         <v>73.1</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="6">
         <v>32330.0</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="6" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="11" t="s">
@@ -5031,24 +5029,24 @@
       <c r="I10" s="12">
         <v>72.55</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="6">
         <v>32020.0</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="6" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="11" t="s">
@@ -5075,24 +5073,24 @@
       <c r="I11" s="12">
         <v>74.82</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="6">
         <v>32390.0</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="6" t="s">
         <v>77</v>
       </c>
       <c r="B12" s="11" t="s">
@@ -5119,24 +5117,24 @@
       <c r="I12" s="12">
         <v>71.0</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12" s="6">
         <v>32350.0</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="6" t="s">
         <v>82</v>
       </c>
       <c r="B13" s="11" t="s">
@@ -5163,24 +5161,24 @@
       <c r="I13" s="12">
         <v>72.61</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13" s="6">
         <v>32360.0</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="6" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B14" s="11" t="s">
@@ -5207,24 +5205,24 @@
       <c r="I14" s="12">
         <v>75.7</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K14" s="2">
+      <c r="K14" s="6">
         <v>32010.0</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B15" s="11" t="s">
@@ -5251,24 +5249,24 @@
       <c r="I15" s="12">
         <v>71.5</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="2">
+      <c r="K15" s="6">
         <v>32050.0</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="6" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B16" s="11" t="s">
@@ -5295,24 +5293,24 @@
       <c r="I16" s="12">
         <v>71.15</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K16" s="2">
+      <c r="K16" s="6">
         <v>32340.0</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="6" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="6" t="s">
         <v>102</v>
       </c>
       <c r="B17" s="11" t="s">
@@ -5339,24 +5337,24 @@
       <c r="I17" s="12">
         <v>73.39</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="6">
         <v>32310.0</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="6" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="6" t="s">
         <v>107</v>
       </c>
       <c r="B18" s="11" t="s">
@@ -5383,24 +5381,24 @@
       <c r="I18" s="12">
         <v>74.23</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K18" s="2">
+      <c r="K18" s="6">
         <v>32370.0</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="6" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B19" s="11" t="s">
@@ -5427,24 +5425,24 @@
       <c r="I19" s="12">
         <v>73.85</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K19" s="2">
+      <c r="K19" s="6">
         <v>32320.0</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="6" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="6" t="s">
         <v>117</v>
       </c>
       <c r="B20" s="11" t="s">
@@ -5471,24 +5469,24 @@
       <c r="I20" s="12">
         <v>73.11</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K20" s="2">
+      <c r="K20" s="6">
         <v>31370.0</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="6" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B21" s="11" t="s">
@@ -5515,24 +5513,24 @@
       <c r="I21" s="12">
         <v>75.47</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K21" s="2">
+      <c r="K21" s="6">
         <v>31101.0</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="6" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="6" t="s">
         <v>129</v>
       </c>
       <c r="B22" s="11" t="s">
@@ -5559,24 +5557,24 @@
       <c r="I22" s="12">
         <v>75.78</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K22" s="2">
+      <c r="K22" s="6">
         <v>31103.0</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="6" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B23" s="11" t="s">
@@ -5603,24 +5601,24 @@
       <c r="I23" s="12">
         <v>77.76</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K23" s="2">
+      <c r="K23" s="6">
         <v>31104.0</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="6" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B24" s="11" t="s">
@@ -5647,24 +5645,24 @@
       <c r="I24" s="12">
         <v>80.29</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K24" s="2">
+      <c r="K24" s="6">
         <v>31110.0</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="6" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="6" t="s">
         <v>144</v>
       </c>
       <c r="B25" s="11" t="s">
@@ -5691,24 +5689,24 @@
       <c r="I25" s="12">
         <v>77.76</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K25" s="2">
+      <c r="K25" s="6">
         <v>31060.0</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="6" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="6" t="s">
         <v>149</v>
       </c>
       <c r="B26" s="11" t="s">
@@ -5735,24 +5733,24 @@
       <c r="I26" s="12">
         <v>73.15</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K26" s="2">
+      <c r="K26" s="6">
         <v>31250.0</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="6" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="2" t="s">
+      <c r="A27" s="6" t="s">
         <v>154</v>
       </c>
       <c r="B27" s="11" t="s">
@@ -5779,24 +5777,24 @@
       <c r="I27" s="12">
         <v>75.48</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="J27" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K27" s="6">
         <v>31120.0</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="6" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="2" t="s">
+      <c r="A28" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B28" s="11" t="s">
@@ -5823,24 +5821,24 @@
       <c r="I28" s="12">
         <v>78.81</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="J28" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K28" s="6">
         <v>31160.0</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B29" s="11" t="s">
@@ -5867,24 +5865,24 @@
       <c r="I29" s="12">
         <v>75.23</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="J29" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K29" s="2">
+      <c r="K29" s="6">
         <v>31230.0</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="L29" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="M29" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="2" t="s">
+      <c r="A30" s="6" t="s">
         <v>169</v>
       </c>
       <c r="B30" s="11" t="s">
@@ -5911,24 +5909,24 @@
       <c r="I30" s="12">
         <v>73.58</v>
       </c>
-      <c r="J30" s="2" t="s">
+      <c r="J30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K30" s="2">
+      <c r="K30" s="6">
         <v>31130.0</v>
       </c>
-      <c r="L30" s="2" t="s">
+      <c r="L30" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="N30" s="2" t="s">
+      <c r="N30" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B31" s="11" t="s">
@@ -5955,24 +5953,24 @@
       <c r="I31" s="12">
         <v>68.34</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="J31" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K31" s="2">
+      <c r="K31" s="6">
         <v>31080.0</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="L31" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="N31" s="2" t="s">
+      <c r="N31" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B32" s="11" t="s">
@@ -5999,24 +5997,24 @@
       <c r="I32" s="12">
         <v>75.08</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K32" s="2">
+      <c r="K32" s="6">
         <v>31052.0</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="L32" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="N32" s="6" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B33" s="11" t="s">
@@ -6043,24 +6041,24 @@
       <c r="I33" s="12">
         <v>71.61</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="J33" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K33" s="2">
+      <c r="K33" s="6">
         <v>31053.0</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="L33" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="N33" s="2" t="s">
+      <c r="N33" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B34" s="11" t="s">
@@ -6087,24 +6085,24 @@
       <c r="I34" s="12">
         <v>75.32</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K34" s="2">
+      <c r="K34" s="6">
         <v>31051.0</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="L34" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="N34" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B35" s="11" t="s">
@@ -6131,24 +6129,24 @@
       <c r="I35" s="12">
         <v>80.09</v>
       </c>
-      <c r="J35" s="2" t="s">
+      <c r="J35" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K35" s="2">
+      <c r="K35" s="6">
         <v>31023.0</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="L35" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="N35" s="6" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="2" t="s">
+      <c r="A36" s="6" t="s">
         <v>199</v>
       </c>
       <c r="B36" s="11" t="s">
@@ -6175,24 +6173,24 @@
       <c r="I36" s="12">
         <v>71.09</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="J36" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K36" s="2">
+      <c r="K36" s="6">
         <v>31021.0</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="L36" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="N36" s="2" t="s">
+      <c r="N36" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="6" t="s">
         <v>204</v>
       </c>
       <c r="B37" s="11" t="s">
@@ -6219,24 +6217,24 @@
       <c r="I37" s="12">
         <v>71.23</v>
       </c>
-      <c r="J37" s="2" t="s">
+      <c r="J37" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K37" s="2">
+      <c r="K37" s="6">
         <v>31022.0</v>
       </c>
-      <c r="L37" s="2" t="s">
+      <c r="L37" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M37" s="2" t="s">
+      <c r="M37" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="N37" s="2" t="s">
+      <c r="N37" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="2" t="s">
+      <c r="A38" s="6" t="s">
         <v>209</v>
       </c>
       <c r="B38" s="11" t="s">
@@ -6263,24 +6261,24 @@
       <c r="I38" s="12">
         <v>74.09</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="J38" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K38" s="2">
+      <c r="K38" s="6">
         <v>31012.0</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="L38" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N38" s="2" t="s">
+      <c r="N38" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="2" t="s">
+      <c r="A39" s="6" t="s">
         <v>214</v>
       </c>
       <c r="B39" s="11" t="s">
@@ -6307,24 +6305,24 @@
       <c r="I39" s="12">
         <v>79.37</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="J39" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K39" s="2">
+      <c r="K39" s="6">
         <v>31014.0</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="L39" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="2" t="s">
+      <c r="A40" s="6" t="s">
         <v>219</v>
       </c>
       <c r="B40" s="11" t="s">
@@ -6351,24 +6349,24 @@
       <c r="I40" s="12">
         <v>77.34</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="J40" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K40" s="2">
+      <c r="K40" s="6">
         <v>31011.0</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="L40" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M40" s="2" t="s">
+      <c r="M40" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="N40" s="2" t="s">
+      <c r="N40" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="6" t="s">
         <v>224</v>
       </c>
       <c r="B41" s="11" t="s">
@@ -6395,24 +6393,24 @@
       <c r="I41" s="12">
         <v>72.19</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="J41" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K41" s="2">
+      <c r="K41" s="6">
         <v>31013.0</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="L41" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="N41" s="2" t="s">
+      <c r="N41" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="2" t="s">
+      <c r="A42" s="6" t="s">
         <v>229</v>
       </c>
       <c r="B42" s="11" t="s">
@@ -6439,24 +6437,24 @@
       <c r="I42" s="12">
         <v>71.27</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="J42" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K42" s="2">
+      <c r="K42" s="6">
         <v>31150.0</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="L42" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M42" s="2" t="s">
+      <c r="M42" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="N42" s="2" t="s">
+      <c r="N42" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="s">
+      <c r="A43" s="6" t="s">
         <v>234</v>
       </c>
       <c r="B43" s="11" t="s">
@@ -6483,24 +6481,24 @@
       <c r="I43" s="12">
         <v>71.95</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K43" s="2">
+      <c r="K43" s="6">
         <v>31092.0</v>
       </c>
-      <c r="L43" s="2" t="s">
+      <c r="L43" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="N43" s="2" t="s">
+      <c r="N43" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="s">
+      <c r="A44" s="6" t="s">
         <v>239</v>
       </c>
       <c r="B44" s="11" t="s">
@@ -6527,24 +6525,24 @@
       <c r="I44" s="12">
         <v>72.07</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="J44" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K44" s="2">
+      <c r="K44" s="6">
         <v>31091.0</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="L44" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M44" s="2" t="s">
+      <c r="M44" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="N44" s="2" t="s">
+      <c r="N44" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="6" t="s">
         <v>244</v>
       </c>
       <c r="B45" s="11" t="s">
@@ -6571,24 +6569,24 @@
       <c r="I45" s="12">
         <v>71.75</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="J45" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K45" s="2">
+      <c r="K45" s="6">
         <v>31220.0</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="L45" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="N45" s="2" t="s">
+      <c r="N45" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="6" t="s">
         <v>249</v>
       </c>
       <c r="B46" s="11" t="s">
@@ -6615,24 +6613,24 @@
       <c r="I46" s="12">
         <v>79.83</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="J46" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K46" s="2">
+      <c r="K46" s="6">
         <v>31042.0</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="L46" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="N46" s="2" t="s">
+      <c r="N46" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="2" t="s">
+      <c r="A47" s="6" t="s">
         <v>254</v>
       </c>
       <c r="B47" s="11" t="s">
@@ -6659,24 +6657,24 @@
       <c r="I47" s="12">
         <v>75.67</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="J47" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K47" s="2">
+      <c r="K47" s="6">
         <v>31041.0</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="L47" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="N47" s="2" t="s">
+      <c r="N47" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="2" t="s">
+      <c r="A48" s="6" t="s">
         <v>259</v>
       </c>
       <c r="B48" s="11" t="s">
@@ -6703,24 +6701,24 @@
       <c r="I48" s="12">
         <v>72.23</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="J48" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K48" s="2">
+      <c r="K48" s="6">
         <v>31260.0</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="L48" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="6" t="s">
         <v>264</v>
       </c>
       <c r="B49" s="11" t="s">
@@ -6747,24 +6745,24 @@
       <c r="I49" s="12">
         <v>73.29</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="J49" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K49" s="2">
+      <c r="K49" s="6">
         <v>31380.0</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="L49" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="N49" s="2" t="s">
+      <c r="N49" s="6" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="2" t="s">
+      <c r="A50" s="6" t="s">
         <v>269</v>
       </c>
       <c r="B50" s="11" t="s">
@@ -6791,24 +6789,24 @@
       <c r="I50" s="12">
         <v>71.3</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K50" s="2">
+      <c r="K50" s="6">
         <v>31320.0</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="L50" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="N50" s="2" t="s">
+      <c r="N50" s="6" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="2" t="s">
+      <c r="A51" s="6" t="s">
         <v>274</v>
       </c>
       <c r="B51" s="11" t="s">
@@ -6835,24 +6833,24 @@
       <c r="I51" s="12">
         <v>72.86</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="J51" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K51" s="2">
+      <c r="K51" s="6">
         <v>31350.0</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="L51" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="N51" s="2" t="s">
+      <c r="N51" s="6" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="2" t="s">
+      <c r="A52" s="6" t="s">
         <v>279</v>
       </c>
       <c r="B52" s="11" t="s">
@@ -6879,24 +6877,24 @@
       <c r="I52" s="12">
         <v>71.76</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="J52" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K52" s="2">
+      <c r="K52" s="6">
         <v>31140.0</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="L52" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="N52" s="2" t="s">
+      <c r="N52" s="6" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="6" t="s">
         <v>284</v>
       </c>
       <c r="B53" s="11" t="s">
@@ -6923,24 +6921,24 @@
       <c r="I53" s="12">
         <v>78.08</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="J53" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K53" s="2">
+      <c r="K53" s="6">
         <v>31192.0</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="L53" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="N53" s="2" t="s">
+      <c r="N53" s="6" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="2" t="s">
+      <c r="A54" s="6" t="s">
         <v>289</v>
       </c>
       <c r="B54" s="11" t="s">
@@ -6967,24 +6965,24 @@
       <c r="I54" s="12">
         <v>79.86</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K54" s="2">
+      <c r="K54" s="6">
         <v>31193.0</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="L54" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="N54" s="2" t="s">
+      <c r="N54" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="2" t="s">
+      <c r="A55" s="6" t="s">
         <v>294</v>
       </c>
       <c r="B55" s="11" t="s">
@@ -7011,24 +7009,24 @@
       <c r="I55" s="12">
         <v>71.65</v>
       </c>
-      <c r="J55" s="2" t="s">
+      <c r="J55" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K55" s="2">
+      <c r="K55" s="6">
         <v>31191.0</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="L55" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="N55" s="6" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="2" t="s">
+      <c r="A56" s="6" t="s">
         <v>299</v>
       </c>
       <c r="B56" s="11" t="s">
@@ -7055,24 +7053,24 @@
       <c r="I56" s="12">
         <v>78.84</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="J56" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K56" s="2">
+      <c r="K56" s="6">
         <v>31170.0</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="L56" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M56" s="2" t="s">
+      <c r="M56" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="N56" s="2" t="s">
+      <c r="N56" s="6" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="6" t="s">
         <v>304</v>
       </c>
       <c r="B57" s="11" t="s">
@@ -7099,24 +7097,24 @@
       <c r="I57" s="12">
         <v>73.51</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="J57" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K57" s="2">
+      <c r="K57" s="6">
         <v>31030.0</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="L57" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="N57" s="2" t="s">
+      <c r="N57" s="6" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="6" t="s">
         <v>309</v>
       </c>
       <c r="B58" s="11" t="s">
@@ -7143,24 +7141,24 @@
       <c r="I58" s="12">
         <v>71.57</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="J58" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K58" s="2">
+      <c r="K58" s="6">
         <v>31210.0</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="L58" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="N58" s="2" t="s">
+      <c r="N58" s="6" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
+      <c r="A59" s="6" t="s">
         <v>314</v>
       </c>
       <c r="B59" s="11" t="s">
@@ -7187,24 +7185,24 @@
       <c r="I59" s="12">
         <v>73.42</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="J59" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K59" s="2">
+      <c r="K59" s="6">
         <v>31200.0</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="L59" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="N59" s="2" t="s">
+      <c r="N59" s="6" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="2" t="s">
+      <c r="A60" s="6" t="s">
         <v>319</v>
       </c>
       <c r="B60" s="11" t="s">
@@ -7231,24 +7229,24 @@
       <c r="I60" s="12">
         <v>71.54</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="J60" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K60" s="2">
+      <c r="K60" s="6">
         <v>31070.0</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="L60" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M60" s="2" t="s">
+      <c r="M60" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="N60" s="2" t="s">
+      <c r="N60" s="6" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="2" t="s">
+      <c r="A61" s="6" t="s">
         <v>324</v>
       </c>
       <c r="B61" s="11" t="s">
@@ -7275,24 +7273,24 @@
       <c r="I61" s="12">
         <v>70.27</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="J61" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K61" s="2">
+      <c r="K61" s="6">
         <v>31270.0</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="L61" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="N61" s="2" t="s">
+      <c r="N61" s="6" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="2" t="s">
+      <c r="A62" s="6" t="s">
         <v>329</v>
       </c>
       <c r="B62" s="11" t="s">
@@ -7319,24 +7317,24 @@
       <c r="I62" s="12">
         <v>74.42</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K62" s="2">
+      <c r="K62" s="6">
         <v>31180.0</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="L62" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="N62" s="2" t="s">
+      <c r="N62" s="6" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="2" t="s">
+      <c r="A63" s="6" t="s">
         <v>334</v>
       </c>
       <c r="B63" s="11" t="s">
@@ -7363,24 +7361,24 @@
       <c r="I63" s="12">
         <v>74.75</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K63" s="2">
+      <c r="K63" s="6">
         <v>31240.0</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="L63" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="N63" s="2" t="s">
+      <c r="N63" s="6" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="2" t="s">
+      <c r="A64" s="6" t="s">
         <v>339</v>
       </c>
       <c r="B64" s="11" t="s">
@@ -7407,24 +7405,24 @@
       <c r="I64" s="12">
         <v>73.29</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="J64" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K64" s="2">
+      <c r="K64" s="6">
         <v>38090.0</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="L64" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="N64" s="2" t="s">
+      <c r="N64" s="6" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="2" t="s">
+      <c r="A65" s="6" t="s">
         <v>345</v>
       </c>
       <c r="B65" s="11" t="s">
@@ -7451,24 +7449,24 @@
       <c r="I65" s="12">
         <v>76.48</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="J65" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K65" s="2">
+      <c r="K65" s="6">
         <v>38390.0</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="L65" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="N65" s="2" t="s">
+      <c r="N65" s="6" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="2" t="s">
+      <c r="A66" s="6" t="s">
         <v>350</v>
       </c>
       <c r="B66" s="11" t="s">
@@ -7495,24 +7493,24 @@
       <c r="I66" s="12">
         <v>72.81</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="J66" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K66" s="2">
+      <c r="K66" s="6">
         <v>38340.0</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="L66" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="N66" s="2" t="s">
+      <c r="N66" s="6" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="2" t="s">
+      <c r="A67" s="6" t="s">
         <v>354</v>
       </c>
       <c r="B67" s="11" t="s">
@@ -7539,24 +7537,24 @@
       <c r="I67" s="12">
         <v>75.69</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="J67" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K67" s="2">
+      <c r="K67" s="6">
         <v>38070.0</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="L67" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="N67" s="2" t="s">
+      <c r="N67" s="6" t="s">
         <v>358</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="2" t="s">
+      <c r="A68" s="6" t="s">
         <v>359</v>
       </c>
       <c r="B68" s="11" t="s">
@@ -7583,24 +7581,24 @@
       <c r="I68" s="12">
         <v>75.05</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="J68" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K68" s="2">
+      <c r="K68" s="6">
         <v>38350.0</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="L68" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="N68" s="2" t="s">
+      <c r="N68" s="6" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="2" t="s">
+      <c r="A69" s="6" t="s">
         <v>364</v>
       </c>
       <c r="B69" s="11" t="s">
@@ -7627,24 +7625,24 @@
       <c r="I69" s="12">
         <v>75.19</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="J69" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K69" s="2">
+      <c r="K69" s="6">
         <v>38080.0</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="L69" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="N69" s="2" t="s">
+      <c r="N69" s="6" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="2" t="s">
+      <c r="A70" s="6" t="s">
         <v>369</v>
       </c>
       <c r="B70" s="11" t="s">
@@ -7671,24 +7669,24 @@
       <c r="I70" s="12">
         <v>75.54</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="J70" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K70" s="2">
+      <c r="K70" s="6">
         <v>38060.0</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M70" s="2" t="s">
+      <c r="M70" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="N70" s="2" t="s">
+      <c r="N70" s="6" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="2" t="s">
+      <c r="A71" s="6" t="s">
         <v>374</v>
       </c>
       <c r="B71" s="11" t="s">
@@ -7715,24 +7713,24 @@
       <c r="I71" s="12">
         <v>75.29</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="J71" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K71" s="2">
+      <c r="K71" s="6">
         <v>38370.0</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="N71" s="2" t="s">
+      <c r="N71" s="6" t="s">
         <v>378</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="2" t="s">
+      <c r="A72" s="6" t="s">
         <v>379</v>
       </c>
       <c r="B72" s="11" t="s">
@@ -7759,24 +7757,24 @@
       <c r="I72" s="12">
         <v>76.23</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K72" s="2">
+      <c r="K72" s="6">
         <v>38100.0</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="L72" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="N72" s="2" t="s">
+      <c r="N72" s="6" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="2" t="s">
+      <c r="A73" s="6" t="s">
         <v>384</v>
       </c>
       <c r="B73" s="11" t="s">
@@ -7803,24 +7801,24 @@
       <c r="I73" s="12">
         <v>73.96</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="J73" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K73" s="2">
+      <c r="K73" s="6">
         <v>38310.0</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="L73" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M73" s="2" t="s">
+      <c r="M73" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="N73" s="2" t="s">
+      <c r="N73" s="6" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="2" t="s">
+      <c r="A74" s="6" t="s">
         <v>389</v>
       </c>
       <c r="B74" s="11" t="s">
@@ -7847,24 +7845,24 @@
       <c r="I74" s="12">
         <v>78.48</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="J74" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K74" s="2">
+      <c r="K74" s="6">
         <v>38030.0</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="L74" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="N74" s="2" t="s">
+      <c r="N74" s="6" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="2" t="s">
+      <c r="A75" s="6" t="s">
         <v>394</v>
       </c>
       <c r="B75" s="11" t="s">
@@ -7891,24 +7889,24 @@
       <c r="I75" s="12">
         <v>74.49</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K75" s="2">
+      <c r="K75" s="6">
         <v>38330.0</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="L75" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="N75" s="2" t="s">
+      <c r="N75" s="6" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="2" t="s">
+      <c r="A76" s="6" t="s">
         <v>399</v>
       </c>
       <c r="B76" s="11" t="s">
@@ -7935,24 +7933,24 @@
       <c r="I76" s="12">
         <v>77.15</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="J76" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K76" s="2">
+      <c r="K76" s="6">
         <v>38113.0</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="L76" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="N76" s="2" t="s">
+      <c r="N76" s="6" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="2" t="s">
+      <c r="A77" s="6" t="s">
         <v>404</v>
       </c>
       <c r="B77" s="11" t="s">
@@ -7979,24 +7977,24 @@
       <c r="I77" s="12">
         <v>78.26</v>
       </c>
-      <c r="J77" s="2" t="s">
+      <c r="J77" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K77" s="2">
+      <c r="K77" s="6">
         <v>38114.0</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="L77" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="N77" s="2" t="s">
+      <c r="N77" s="6" t="s">
         <v>408</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="s">
+      <c r="A78" s="6" t="s">
         <v>409</v>
       </c>
       <c r="B78" s="11" t="s">
@@ -8023,24 +8021,24 @@
       <c r="I78" s="12">
         <v>80.61</v>
       </c>
-      <c r="J78" s="2" t="s">
+      <c r="J78" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K78" s="2">
+      <c r="K78" s="6">
         <v>38112.0</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="L78" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="N78" s="2" t="s">
+      <c r="N78" s="6" t="s">
         <v>413</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="s">
+      <c r="A79" s="6" t="s">
         <v>414</v>
       </c>
       <c r="B79" s="11" t="s">
@@ -8067,24 +8065,24 @@
       <c r="I79" s="12">
         <v>77.3</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="J79" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K79" s="2">
+      <c r="K79" s="6">
         <v>38111.0</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="L79" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M79" s="2" t="s">
+      <c r="M79" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="N79" s="2" t="s">
+      <c r="N79" s="6" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="2" t="s">
+      <c r="A80" s="6" t="s">
         <v>419</v>
       </c>
       <c r="B80" s="11" t="s">
@@ -8111,24 +8109,24 @@
       <c r="I80" s="12">
         <v>76.77</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K80" s="2">
+      <c r="K80" s="6">
         <v>38115.0</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="L80" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M80" s="2" t="s">
+      <c r="M80" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="N80" s="2" t="s">
+      <c r="N80" s="6" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="2" t="s">
+      <c r="A81" s="6" t="s">
         <v>424</v>
       </c>
       <c r="B81" s="11" t="s">
@@ -8155,24 +8153,24 @@
       <c r="I81" s="12">
         <v>73.71</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="J81" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K81" s="2">
+      <c r="K81" s="6">
         <v>38050.0</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="L81" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="N81" s="2" t="s">
+      <c r="N81" s="6" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="2" t="s">
+      <c r="A82" s="6" t="s">
         <v>429</v>
       </c>
       <c r="B82" s="11" t="s">
@@ -8199,24 +8197,24 @@
       <c r="I82" s="12">
         <v>76.9</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="J82" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K82" s="2">
+      <c r="K82" s="6">
         <v>38360.0</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="L82" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="N82" s="2" t="s">
+      <c r="N82" s="6" t="s">
         <v>433</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="2" t="s">
+      <c r="A83" s="6" t="s">
         <v>434</v>
       </c>
       <c r="B83" s="11" t="s">
@@ -8243,24 +8241,24 @@
       <c r="I83" s="12">
         <v>75.91</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="J83" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K83" s="2">
+      <c r="K83" s="6">
         <v>38320.0</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="L83" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="N83" s="2" t="s">
+      <c r="N83" s="6" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="2" t="s">
+      <c r="A84" s="6" t="s">
         <v>439</v>
       </c>
       <c r="B84" s="11" t="s">
@@ -8287,24 +8285,24 @@
       <c r="I84" s="12">
         <v>76.11</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K84" s="2">
+      <c r="K84" s="6">
         <v>38380.0</v>
       </c>
-      <c r="L84" s="2" t="s">
+      <c r="L84" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="N84" s="2" t="s">
+      <c r="N84" s="6" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="2" t="s">
+      <c r="A85" s="6" t="s">
         <v>444</v>
       </c>
       <c r="B85" s="11" t="s">
@@ -8331,24 +8329,24 @@
       <c r="I85" s="12">
         <v>74.95</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="J85" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K85" s="2">
+      <c r="K85" s="6">
         <v>38400.0</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="L85" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="N85" s="2" t="s">
+      <c r="N85" s="6" t="s">
         <v>448</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="6" t="s">
         <v>449</v>
       </c>
       <c r="B86" s="11" t="s">
@@ -8375,24 +8373,24 @@
       <c r="I86" s="12">
         <v>76.87</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="J86" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K86" s="2">
+      <c r="K86" s="6">
         <v>37100.0</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="L86" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M86" s="2" t="s">
+      <c r="M86" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="N86" s="2" t="s">
+      <c r="N86" s="6" t="s">
         <v>454</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="2" t="s">
+      <c r="A87" s="6" t="s">
         <v>455</v>
       </c>
       <c r="B87" s="11" t="s">
@@ -8419,24 +8417,24 @@
       <c r="I87" s="12">
         <v>78.12</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="J87" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K87" s="2">
+      <c r="K87" s="6">
         <v>37020.0</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="L87" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M87" s="2" t="s">
+      <c r="M87" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="N87" s="2" t="s">
+      <c r="N87" s="6" t="s">
         <v>459</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="2" t="s">
+      <c r="A88" s="6" t="s">
         <v>460</v>
       </c>
       <c r="B88" s="11" t="s">
@@ -8463,24 +8461,24 @@
       <c r="I88" s="12">
         <v>78.11</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="J88" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K88" s="2">
+      <c r="K88" s="6">
         <v>37370.0</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="L88" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="N88" s="2" t="s">
+      <c r="N88" s="6" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="2" t="s">
+      <c r="A89" s="6" t="s">
         <v>465</v>
       </c>
       <c r="B89" s="11" t="s">
@@ -8507,24 +8505,24 @@
       <c r="I89" s="12">
         <v>78.36</v>
       </c>
-      <c r="J89" s="2" t="s">
+      <c r="J89" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K89" s="2">
+      <c r="K89" s="6">
         <v>37050.0</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="L89" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="N89" s="2" t="s">
+      <c r="N89" s="6" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="2" t="s">
+      <c r="A90" s="6" t="s">
         <v>470</v>
       </c>
       <c r="B90" s="11" t="s">
@@ -8551,24 +8549,24 @@
       <c r="I90" s="12">
         <v>80.99</v>
       </c>
-      <c r="J90" s="2" t="s">
+      <c r="J90" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K90" s="2">
+      <c r="K90" s="6">
         <v>37310.0</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="L90" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M90" s="2" t="s">
+      <c r="M90" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="N90" s="2" t="s">
+      <c r="N90" s="6" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="s">
+      <c r="A91" s="6" t="s">
         <v>475</v>
       </c>
       <c r="B91" s="11" t="s">
@@ -8595,24 +8593,24 @@
       <c r="I91" s="12">
         <v>78.95</v>
       </c>
-      <c r="J91" s="2" t="s">
+      <c r="J91" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K91" s="2">
+      <c r="K91" s="6">
         <v>37030.0</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="L91" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="N91" s="2" t="s">
+      <c r="N91" s="6" t="s">
         <v>479</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="s">
+      <c r="A92" s="6" t="s">
         <v>480</v>
       </c>
       <c r="B92" s="11" t="s">
@@ -8639,24 +8637,24 @@
       <c r="I92" s="12">
         <v>78.33</v>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K92" s="2">
+      <c r="K92" s="6">
         <v>37090.0</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="L92" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="N92" s="2" t="s">
+      <c r="N92" s="6" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="6" t="s">
         <v>485</v>
       </c>
       <c r="B93" s="11" t="s">
@@ -8683,24 +8681,24 @@
       <c r="I93" s="12">
         <v>77.38</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="J93" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K93" s="2">
+      <c r="K93" s="6">
         <v>37410.0</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="L93" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="N93" s="2" t="s">
+      <c r="N93" s="6" t="s">
         <v>489</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="s">
+      <c r="A94" s="6" t="s">
         <v>490</v>
       </c>
       <c r="B94" s="11" t="s">
@@ -8727,24 +8725,24 @@
       <c r="I94" s="12">
         <v>78.9</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="J94" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K94" s="2">
+      <c r="K94" s="6">
         <v>37080.0</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="L94" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="N94" s="2" t="s">
+      <c r="N94" s="6" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="s">
+      <c r="A95" s="6" t="s">
         <v>495</v>
       </c>
       <c r="B95" s="11" t="s">
@@ -8771,24 +8769,24 @@
       <c r="I95" s="12">
         <v>78.49</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K95" s="2">
+      <c r="K95" s="6">
         <v>37380.0</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="L95" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="N95" s="2" t="s">
+      <c r="N95" s="6" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="s">
+      <c r="A96" s="6" t="s">
         <v>500</v>
       </c>
       <c r="B96" s="11" t="s">
@@ -8815,24 +8813,24 @@
       <c r="I96" s="12">
         <v>77.99</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="J96" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K96" s="2">
+      <c r="K96" s="6">
         <v>37040.0</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="L96" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M96" s="2" t="s">
+      <c r="M96" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="N96" s="2" t="s">
+      <c r="N96" s="6" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="s">
+      <c r="A97" s="6" t="s">
         <v>505</v>
       </c>
       <c r="B97" s="11" t="s">
@@ -8859,24 +8857,24 @@
       <c r="I97" s="12">
         <v>77.63</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="J97" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K97" s="2">
+      <c r="K97" s="6">
         <v>37350.0</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="L97" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="6" t="s">
         <v>508</v>
       </c>
-      <c r="N97" s="2" t="s">
+      <c r="N97" s="6" t="s">
         <v>509</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="2" t="s">
+      <c r="A98" s="6" t="s">
         <v>510</v>
       </c>
       <c r="B98" s="11" t="s">
@@ -8903,24 +8901,24 @@
       <c r="I98" s="12">
         <v>76.73</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K98" s="2">
+      <c r="K98" s="6">
         <v>37340.0</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="L98" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="6" t="s">
         <v>513</v>
       </c>
-      <c r="N98" s="2" t="s">
+      <c r="N98" s="6" t="s">
         <v>514</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="2" t="s">
+      <c r="A99" s="6" t="s">
         <v>515</v>
       </c>
       <c r="B99" s="11" t="s">
@@ -8947,24 +8945,24 @@
       <c r="I99" s="12">
         <v>78.19</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="J99" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K99" s="2">
+      <c r="K99" s="6">
         <v>37060.0</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="L99" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="6" t="s">
         <v>518</v>
       </c>
-      <c r="N99" s="2" t="s">
+      <c r="N99" s="6" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="2" t="s">
+      <c r="A100" s="6" t="s">
         <v>520</v>
       </c>
       <c r="B100" s="11" t="s">
@@ -8991,24 +8989,24 @@
       <c r="I100" s="12">
         <v>77.02</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="J100" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K100" s="2">
+      <c r="K100" s="6">
         <v>37070.0</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="L100" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="6" t="s">
         <v>523</v>
       </c>
-      <c r="N100" s="2" t="s">
+      <c r="N100" s="6" t="s">
         <v>524</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="2" t="s">
+      <c r="A101" s="6" t="s">
         <v>525</v>
       </c>
       <c r="B101" s="11" t="s">
@@ -9035,24 +9033,24 @@
       <c r="I101" s="12">
         <v>79.13</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K101" s="2">
+      <c r="K101" s="6">
         <v>37400.0</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="L101" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="6" t="s">
         <v>528</v>
       </c>
-      <c r="N101" s="2" t="s">
+      <c r="N101" s="6" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="2" t="s">
+      <c r="A102" s="6" t="s">
         <v>530</v>
       </c>
       <c r="B102" s="11" t="s">
@@ -9079,24 +9077,24 @@
       <c r="I102" s="12">
         <v>66.24</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="J102" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K102" s="2">
+      <c r="K102" s="6">
         <v>37430.0</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="L102" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M102" s="2" t="s">
+      <c r="M102" s="6" t="s">
         <v>533</v>
       </c>
-      <c r="N102" s="2" t="s">
+      <c r="N102" s="6" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="2" t="s">
+      <c r="A103" s="6" t="s">
         <v>535</v>
       </c>
       <c r="B103" s="11" t="s">
@@ -9123,24 +9121,24 @@
       <c r="I103" s="12">
         <v>76.85</v>
       </c>
-      <c r="J103" s="2" t="s">
+      <c r="J103" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K103" s="2">
+      <c r="K103" s="6">
         <v>37420.0</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="L103" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M103" s="2" t="s">
+      <c r="M103" s="6" t="s">
         <v>538</v>
       </c>
-      <c r="N103" s="2" t="s">
+      <c r="N103" s="6" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" s="2" t="s">
+      <c r="A104" s="6" t="s">
         <v>540</v>
       </c>
       <c r="B104" s="11" t="s">
@@ -9167,24 +9165,24 @@
       <c r="I104" s="12">
         <v>77.17</v>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K104" s="2">
+      <c r="K104" s="6">
         <v>37320.0</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="L104" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="6" t="s">
         <v>543</v>
       </c>
-      <c r="N104" s="2" t="s">
+      <c r="N104" s="6" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" s="2" t="s">
+      <c r="A105" s="6" t="s">
         <v>545</v>
       </c>
       <c r="B105" s="11" t="s">
@@ -9211,24 +9209,24 @@
       <c r="I105" s="12">
         <v>78.79</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="J105" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K105" s="2">
+      <c r="K105" s="6">
         <v>37360.0</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="L105" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="6" t="s">
         <v>548</v>
       </c>
-      <c r="N105" s="2" t="s">
+      <c r="N105" s="6" t="s">
         <v>549</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" s="2" t="s">
+      <c r="A106" s="6" t="s">
         <v>550</v>
       </c>
       <c r="B106" s="11" t="s">
@@ -9255,24 +9253,24 @@
       <c r="I106" s="12">
         <v>77.58</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="J106" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K106" s="2">
+      <c r="K106" s="6">
         <v>37330.0</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="L106" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M106" s="2" t="s">
+      <c r="M106" s="6" t="s">
         <v>553</v>
       </c>
-      <c r="N106" s="2" t="s">
+      <c r="N106" s="6" t="s">
         <v>554</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" s="2" t="s">
+      <c r="A107" s="6" t="s">
         <v>555</v>
       </c>
       <c r="B107" s="11" t="s">
@@ -9299,24 +9297,24 @@
       <c r="I107" s="12">
         <v>76.4</v>
       </c>
-      <c r="J107" s="2" t="s">
+      <c r="J107" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K107" s="2">
+      <c r="K107" s="6">
         <v>37390.0</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="L107" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M107" s="2" t="s">
+      <c r="M107" s="6" t="s">
         <v>558</v>
       </c>
-      <c r="N107" s="2" t="s">
+      <c r="N107" s="6" t="s">
         <v>559</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" s="2" t="s">
+      <c r="A108" s="6" t="s">
         <v>560</v>
       </c>
       <c r="B108" s="11" t="s">
@@ -9343,24 +9341,24 @@
       <c r="I108" s="12">
         <v>77.02</v>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K108" s="2">
+      <c r="K108" s="6">
         <v>37011.0</v>
       </c>
-      <c r="L108" s="2" t="s">
+      <c r="L108" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M108" s="2" t="s">
+      <c r="M108" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="N108" s="2" t="s">
+      <c r="N108" s="6" t="s">
         <v>564</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="6" t="s">
         <v>565</v>
       </c>
       <c r="B109" s="11" t="s">
@@ -9387,24 +9385,24 @@
       <c r="I109" s="12">
         <v>78.18</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="J109" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K109" s="2">
+      <c r="K109" s="6">
         <v>37012.0</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="L109" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N109" s="2" t="s">
+      <c r="N109" s="6" t="s">
         <v>569</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" s="2" t="s">
+      <c r="A110" s="6" t="s">
         <v>570</v>
       </c>
       <c r="B110" s="11" t="s">
@@ -9431,24 +9429,24 @@
       <c r="I110" s="12">
         <v>80.67</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="J110" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K110" s="2">
+      <c r="K110" s="6">
         <v>24050.0</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="L110" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="N110" s="2" t="s">
+      <c r="N110" s="6" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" s="2" t="s">
+      <c r="A111" s="6" t="s">
         <v>576</v>
       </c>
       <c r="B111" s="11" t="s">
@@ -9475,24 +9473,24 @@
       <c r="I111" s="12">
         <v>79.87</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="J111" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K111" s="2">
+      <c r="K111" s="6">
         <v>24030.0</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="L111" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M111" s="2" t="s">
+      <c r="M111" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="N111" s="2" t="s">
+      <c r="N111" s="6" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" s="2" t="s">
+      <c r="A112" s="6" t="s">
         <v>580</v>
       </c>
       <c r="B112" s="11" t="s">
@@ -9519,24 +9517,24 @@
       <c r="I112" s="12">
         <v>76.64</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="J112" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K112" s="2">
+      <c r="K112" s="6">
         <v>24010.0</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="L112" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="N112" s="2" t="s">
+      <c r="N112" s="6" t="s">
         <v>584</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" s="2" t="s">
+      <c r="A113" s="6" t="s">
         <v>585</v>
       </c>
       <c r="B113" s="11" t="s">
@@ -9563,24 +9561,24 @@
       <c r="I113" s="12">
         <v>80.16</v>
       </c>
-      <c r="J113" s="2" t="s">
+      <c r="J113" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K113" s="2">
+      <c r="K113" s="6">
         <v>24040.0</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="L113" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N113" s="2" t="s">
+      <c r="N113" s="6" t="s">
         <v>588</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" s="2" t="s">
+      <c r="A114" s="6" t="s">
         <v>589</v>
       </c>
       <c r="B114" s="11" t="s">
@@ -9607,24 +9605,24 @@
       <c r="I114" s="12">
         <v>80.91</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="J114" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K114" s="2">
+      <c r="K114" s="6">
         <v>24020.0</v>
       </c>
-      <c r="L114" s="2" t="s">
+      <c r="L114" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="M114" s="2" t="s">
+      <c r="M114" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="N114" s="2" t="s">
+      <c r="N114" s="6" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="2" t="s">
+      <c r="A115" s="6" t="s">
         <v>594</v>
       </c>
       <c r="B115" s="11" t="s">
@@ -9651,24 +9649,24 @@
       <c r="I115" s="12">
         <v>75.67</v>
       </c>
-      <c r="J115" s="2" t="s">
+      <c r="J115" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K115" s="2">
+      <c r="K115" s="6">
         <v>22040.0</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="L115" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M115" s="2" t="s">
+      <c r="M115" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="N115" s="2" t="s">
+      <c r="N115" s="6" t="s">
         <v>598</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" s="2" t="s">
+      <c r="A116" s="6" t="s">
         <v>599</v>
       </c>
       <c r="B116" s="11" t="s">
@@ -9695,24 +9693,24 @@
       <c r="I116" s="12">
         <v>80.83</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K116" s="2">
+      <c r="K116" s="6">
         <v>22070.0</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="L116" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="6" t="s">
         <v>602</v>
       </c>
-      <c r="N116" s="2" t="s">
+      <c r="N116" s="6" t="s">
         <v>603</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" s="2" t="s">
+      <c r="A117" s="6" t="s">
         <v>604</v>
       </c>
       <c r="B117" s="11" t="s">
@@ -9739,24 +9737,24 @@
       <c r="I117" s="12">
         <v>79.77</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="J117" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K117" s="2">
+      <c r="K117" s="6">
         <v>22310.0</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="L117" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="6" t="s">
         <v>607</v>
       </c>
-      <c r="N117" s="2" t="s">
+      <c r="N117" s="6" t="s">
         <v>608</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" s="2" t="s">
+      <c r="A118" s="6" t="s">
         <v>609</v>
       </c>
       <c r="B118" s="11" t="s">
@@ -9783,24 +9781,24 @@
       <c r="I118" s="12">
         <v>78.77</v>
       </c>
-      <c r="J118" s="2" t="s">
+      <c r="J118" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K118" s="2">
+      <c r="K118" s="6">
         <v>22020.0</v>
       </c>
-      <c r="L118" s="2" t="s">
+      <c r="L118" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M118" s="2" t="s">
+      <c r="M118" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="N118" s="2" t="s">
+      <c r="N118" s="6" t="s">
         <v>612</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" s="2" t="s">
+      <c r="A119" s="6" t="s">
         <v>613</v>
       </c>
       <c r="B119" s="11" t="s">
@@ -9827,24 +9825,24 @@
       <c r="I119" s="12">
         <v>80.1</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J119" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K119" s="2">
+      <c r="K119" s="6">
         <v>22050.0</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="L119" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N119" s="2" t="s">
+      <c r="N119" s="6" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" s="2" t="s">
+      <c r="A120" s="6" t="s">
         <v>617</v>
       </c>
       <c r="B120" s="11" t="s">
@@ -9871,24 +9869,24 @@
       <c r="I120" s="12">
         <v>77.08</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="J120" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K120" s="2">
+      <c r="K120" s="6">
         <v>22030.0</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="L120" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M120" s="2" t="s">
+      <c r="M120" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="N120" s="2" t="s">
+      <c r="N120" s="6" t="s">
         <v>620</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" s="2" t="s">
+      <c r="A121" s="6" t="s">
         <v>621</v>
       </c>
       <c r="B121" s="11" t="s">
@@ -9915,24 +9913,24 @@
       <c r="I121" s="12">
         <v>80.86</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="J121" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K121" s="2">
+      <c r="K121" s="6">
         <v>22060.0</v>
       </c>
-      <c r="L121" s="2" t="s">
+      <c r="L121" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="6" t="s">
         <v>624</v>
       </c>
-      <c r="N121" s="2" t="s">
+      <c r="N121" s="6" t="s">
         <v>625</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" s="2" t="s">
+      <c r="A122" s="6" t="s">
         <v>626</v>
       </c>
       <c r="B122" s="11" t="s">
@@ -9959,24 +9957,24 @@
       <c r="I122" s="12">
         <v>75.97</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="J122" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K122" s="2">
+      <c r="K122" s="6">
         <v>22010.0</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="L122" s="6" t="s">
         <v>597</v>
       </c>
-      <c r="M122" s="2" t="s">
+      <c r="M122" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="N122" s="2" t="s">
+      <c r="N122" s="6" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" s="2" t="s">
+      <c r="A123" s="6" t="s">
         <v>631</v>
       </c>
       <c r="B123" s="11" t="s">
@@ -10003,24 +10001,24 @@
       <c r="I123" s="12">
         <v>75.45</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K123" s="2">
+      <c r="K123" s="6">
         <v>25050.0</v>
       </c>
-      <c r="L123" s="2" t="s">
+      <c r="L123" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="6" t="s">
         <v>635</v>
       </c>
-      <c r="N123" s="2" t="s">
+      <c r="N123" s="6" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" s="2" t="s">
+      <c r="A124" s="6" t="s">
         <v>637</v>
       </c>
       <c r="B124" s="11" t="s">
@@ -10047,24 +10045,24 @@
       <c r="I124" s="12">
         <v>73.96</v>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="J124" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K124" s="2">
+      <c r="K124" s="6">
         <v>25010.0</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="L124" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="M124" s="2" t="s">
+      <c r="M124" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="N124" s="2" t="s">
+      <c r="N124" s="6" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" s="2" t="s">
+      <c r="A125" s="6" t="s">
         <v>641</v>
       </c>
       <c r="B125" s="11" t="s">
@@ -10091,24 +10089,24 @@
       <c r="I125" s="12">
         <v>76.54</v>
       </c>
-      <c r="J125" s="2" t="s">
+      <c r="J125" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K125" s="2">
+      <c r="K125" s="6">
         <v>25030.0</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="L125" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="N125" s="2" t="s">
+      <c r="N125" s="6" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="2" t="s">
+      <c r="A126" s="6" t="s">
         <v>645</v>
       </c>
       <c r="B126" s="11" t="s">
@@ -10135,24 +10133,24 @@
       <c r="I126" s="12">
         <v>79.18</v>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="J126" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K126" s="2">
+      <c r="K126" s="6">
         <v>25040.0</v>
       </c>
-      <c r="L126" s="2" t="s">
+      <c r="L126" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="M126" s="2" t="s">
+      <c r="M126" s="6" t="s">
         <v>648</v>
       </c>
-      <c r="N126" s="2" t="s">
+      <c r="N126" s="6" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" s="2" t="s">
+      <c r="A127" s="6" t="s">
         <v>650</v>
       </c>
       <c r="B127" s="11" t="s">
@@ -10179,24 +10177,24 @@
       <c r="I127" s="12">
         <v>75.57</v>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="J127" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K127" s="2">
+      <c r="K127" s="6">
         <v>25020.0</v>
       </c>
-      <c r="L127" s="2" t="s">
+      <c r="L127" s="6" t="s">
         <v>634</v>
       </c>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="N127" s="2" t="s">
+      <c r="N127" s="6" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="6" t="s">
         <v>654</v>
       </c>
       <c r="B128" s="11" t="s">
@@ -10223,24 +10221,24 @@
       <c r="I128" s="12">
         <v>75.3</v>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="J128" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K128" s="2">
+      <c r="K128" s="6">
         <v>21120.0</v>
       </c>
-      <c r="L128" s="2" t="s">
+      <c r="L128" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M128" s="2" t="s">
+      <c r="M128" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="N128" s="2" t="s">
+      <c r="N128" s="6" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="2" t="s">
+      <c r="A129" s="6" t="s">
         <v>660</v>
       </c>
       <c r="B129" s="11" t="s">
@@ -10267,24 +10265,24 @@
       <c r="I129" s="12">
         <v>77.32</v>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="J129" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K129" s="2">
+      <c r="K129" s="6">
         <v>21110.0</v>
       </c>
-      <c r="L129" s="2" t="s">
+      <c r="L129" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="6" t="s">
         <v>663</v>
       </c>
-      <c r="N129" s="2" t="s">
+      <c r="N129" s="6" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" s="2" t="s">
+      <c r="A130" s="6" t="s">
         <v>665</v>
       </c>
       <c r="B130" s="11" t="s">
@@ -10311,24 +10309,24 @@
       <c r="I130" s="12">
         <v>75.67</v>
       </c>
-      <c r="J130" s="2" t="s">
+      <c r="J130" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K130" s="2">
+      <c r="K130" s="6">
         <v>21310.0</v>
       </c>
-      <c r="L130" s="2" t="s">
+      <c r="L130" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M130" s="2" t="s">
+      <c r="M130" s="6" t="s">
         <v>668</v>
       </c>
-      <c r="N130" s="2" t="s">
+      <c r="N130" s="6" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" s="2" t="s">
+      <c r="A131" s="6" t="s">
         <v>670</v>
       </c>
       <c r="B131" s="11" t="s">
@@ -10355,24 +10353,24 @@
       <c r="I131" s="12">
         <v>76.78</v>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K131" s="2">
+      <c r="K131" s="6">
         <v>21070.0</v>
       </c>
-      <c r="L131" s="2" t="s">
+      <c r="L131" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="N131" s="2" t="s">
+      <c r="N131" s="6" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" s="2" t="s">
+      <c r="A132" s="6" t="s">
         <v>674</v>
       </c>
       <c r="B132" s="11" t="s">
@@ -10399,24 +10397,24 @@
       <c r="I132" s="12">
         <v>73.77</v>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="J132" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K132" s="2">
+      <c r="K132" s="6">
         <v>21030.0</v>
       </c>
-      <c r="L132" s="2" t="s">
+      <c r="L132" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="N132" s="2" t="s">
+      <c r="N132" s="6" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" s="2" t="s">
+      <c r="A133" s="6" t="s">
         <v>678</v>
       </c>
       <c r="B133" s="11" t="s">
@@ -10443,24 +10441,24 @@
       <c r="I133" s="12">
         <v>77.7</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="J133" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K133" s="2">
+      <c r="K133" s="6">
         <v>21060.0</v>
       </c>
-      <c r="L133" s="2" t="s">
+      <c r="L133" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="6" t="s">
         <v>681</v>
       </c>
-      <c r="N133" s="2" t="s">
+      <c r="N133" s="6" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="2" t="s">
+      <c r="A134" s="6" t="s">
         <v>683</v>
       </c>
       <c r="B134" s="11" t="s">
@@ -10487,24 +10485,24 @@
       <c r="I134" s="12">
         <v>75.39</v>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="J134" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K134" s="2">
+      <c r="K134" s="6">
         <v>21050.0</v>
       </c>
-      <c r="L134" s="2" t="s">
+      <c r="L134" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="6" t="s">
         <v>686</v>
       </c>
-      <c r="N134" s="2" t="s">
+      <c r="N134" s="6" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" s="2" t="s">
+      <c r="A135" s="6" t="s">
         <v>688</v>
       </c>
       <c r="B135" s="11" t="s">
@@ -10531,24 +10529,24 @@
       <c r="I135" s="12">
         <v>78.07</v>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K135" s="2">
+      <c r="K135" s="6">
         <v>21080.0</v>
       </c>
-      <c r="L135" s="2" t="s">
+      <c r="L135" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N135" s="2" t="s">
+      <c r="N135" s="6" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" s="2" t="s">
+      <c r="A136" s="6" t="s">
         <v>692</v>
       </c>
       <c r="B136" s="11" t="s">
@@ -10575,24 +10573,24 @@
       <c r="I136" s="12">
         <v>76.33</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="J136" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K136" s="2">
+      <c r="K136" s="6">
         <v>21150.0</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="L136" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M136" s="2" t="s">
+      <c r="M136" s="6" t="s">
         <v>695</v>
       </c>
-      <c r="N136" s="2" t="s">
+      <c r="N136" s="6" t="s">
         <v>696</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" s="2" t="s">
+      <c r="A137" s="6" t="s">
         <v>697</v>
       </c>
       <c r="B137" s="11" t="s">
@@ -10619,24 +10617,24 @@
       <c r="I137" s="12">
         <v>75.15</v>
       </c>
-      <c r="J137" s="2" t="s">
+      <c r="J137" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K137" s="2">
+      <c r="K137" s="6">
         <v>21100.0</v>
       </c>
-      <c r="L137" s="2" t="s">
+      <c r="L137" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="6" t="s">
         <v>700</v>
       </c>
-      <c r="N137" s="2" t="s">
+      <c r="N137" s="6" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" s="2" t="s">
+      <c r="A138" s="6" t="s">
         <v>702</v>
       </c>
       <c r="B138" s="11" t="s">
@@ -10663,24 +10661,24 @@
       <c r="I138" s="12">
         <v>72.2</v>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="J138" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K138" s="2">
+      <c r="K138" s="6">
         <v>21020.0</v>
       </c>
-      <c r="L138" s="2" t="s">
+      <c r="L138" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M138" s="2" t="s">
+      <c r="M138" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="N138" s="2" t="s">
+      <c r="N138" s="6" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" s="2" t="s">
+      <c r="A139" s="6" t="s">
         <v>706</v>
       </c>
       <c r="B139" s="11" t="s">
@@ -10707,24 +10705,24 @@
       <c r="I139" s="12">
         <v>76.25</v>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="J139" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K139" s="2">
+      <c r="K139" s="6">
         <v>21140.0</v>
       </c>
-      <c r="L139" s="2" t="s">
+      <c r="L139" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="6" t="s">
         <v>709</v>
       </c>
-      <c r="N139" s="2" t="s">
+      <c r="N139" s="6" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" s="2" t="s">
+      <c r="A140" s="6" t="s">
         <v>711</v>
       </c>
       <c r="B140" s="11" t="s">
@@ -10751,24 +10749,24 @@
       <c r="I140" s="12">
         <v>77.48</v>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="J140" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K140" s="2">
+      <c r="K140" s="6">
         <v>21130.0</v>
       </c>
-      <c r="L140" s="2" t="s">
+      <c r="L140" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M140" s="2" t="s">
+      <c r="M140" s="6" t="s">
         <v>714</v>
       </c>
-      <c r="N140" s="2" t="s">
+      <c r="N140" s="6" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="2" t="s">
+      <c r="A141" s="6" t="s">
         <v>716</v>
       </c>
       <c r="B141" s="11" t="s">
@@ -10795,24 +10793,24 @@
       <c r="I141" s="12">
         <v>72.37</v>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K141" s="2">
+      <c r="K141" s="6">
         <v>21040.0</v>
       </c>
-      <c r="L141" s="2" t="s">
+      <c r="L141" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="6" t="s">
         <v>719</v>
       </c>
-      <c r="N141" s="2" t="s">
+      <c r="N141" s="6" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="2" t="s">
+      <c r="A142" s="6" t="s">
         <v>721</v>
       </c>
       <c r="B142" s="11" t="s">
@@ -10839,24 +10837,24 @@
       <c r="I142" s="12">
         <v>70.87</v>
       </c>
-      <c r="J142" s="2" t="s">
+      <c r="J142" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K142" s="2">
+      <c r="K142" s="6">
         <v>21010.0</v>
       </c>
-      <c r="L142" s="2" t="s">
+      <c r="L142" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="N142" s="2" t="s">
+      <c r="N142" s="6" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" s="2" t="s">
+      <c r="A143" s="6" t="s">
         <v>725</v>
       </c>
       <c r="B143" s="11" t="s">
@@ -10883,24 +10881,24 @@
       <c r="I143" s="12">
         <v>76.17</v>
       </c>
-      <c r="J143" s="2" t="s">
+      <c r="J143" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K143" s="2">
+      <c r="K143" s="6">
         <v>21090.0</v>
       </c>
-      <c r="L143" s="2" t="s">
+      <c r="L143" s="6" t="s">
         <v>657</v>
       </c>
-      <c r="M143" s="2" t="s">
+      <c r="M143" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="N143" s="2" t="s">
+      <c r="N143" s="6" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" s="2" t="s">
+      <c r="A144" s="6" t="s">
         <v>730</v>
       </c>
       <c r="B144" s="11" t="s">
@@ -10927,24 +10925,24 @@
       <c r="I144" s="12">
         <v>74.04</v>
       </c>
-      <c r="J144" s="2" t="s">
+      <c r="J144" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K144" s="2">
+      <c r="K144" s="6">
         <v>11230.0</v>
       </c>
-      <c r="L144" s="2" t="s">
+      <c r="L144" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M144" s="2" t="s">
+      <c r="M144" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="N144" s="2" t="s">
+      <c r="N144" s="6" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" s="2" t="s">
+      <c r="A145" s="6" t="s">
         <v>736</v>
       </c>
       <c r="B145" s="11" t="s">
@@ -10971,24 +10969,24 @@
       <c r="I145" s="12">
         <v>75.31</v>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K145" s="2">
+      <c r="K145" s="6">
         <v>11250.0</v>
       </c>
-      <c r="L145" s="2" t="s">
+      <c r="L145" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="6" t="s">
         <v>739</v>
       </c>
-      <c r="N145" s="2" t="s">
+      <c r="N145" s="6" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="2" t="s">
+      <c r="A146" s="6" t="s">
         <v>741</v>
       </c>
       <c r="B146" s="11" t="s">
@@ -11015,24 +11013,24 @@
       <c r="I146" s="12">
         <v>72.26</v>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="J146" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K146" s="2">
+      <c r="K146" s="6">
         <v>11090.0</v>
       </c>
-      <c r="L146" s="2" t="s">
+      <c r="L146" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M146" s="2" t="s">
+      <c r="M146" s="6" t="s">
         <v>744</v>
       </c>
-      <c r="N146" s="2" t="s">
+      <c r="N146" s="6" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" s="2" t="s">
+      <c r="A147" s="6" t="s">
         <v>746</v>
       </c>
       <c r="B147" s="11" t="s">
@@ -11059,24 +11057,24 @@
       <c r="I147" s="12">
         <v>75.15</v>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="J147" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K147" s="2">
+      <c r="K147" s="6">
         <v>11160.0</v>
       </c>
-      <c r="L147" s="2" t="s">
+      <c r="L147" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="6" t="s">
         <v>658</v>
       </c>
-      <c r="N147" s="2" t="s">
+      <c r="N147" s="6" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" s="2" t="s">
+      <c r="A148" s="6" t="s">
         <v>750</v>
       </c>
       <c r="B148" s="11" t="s">
@@ -11103,24 +11101,24 @@
       <c r="I148" s="12">
         <v>74.3</v>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="J148" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K148" s="2">
+      <c r="K148" s="6">
         <v>11210.0</v>
       </c>
-      <c r="L148" s="2" t="s">
+      <c r="L148" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="6" t="s">
         <v>753</v>
       </c>
-      <c r="N148" s="2" t="s">
+      <c r="N148" s="6" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="2" t="s">
+      <c r="A149" s="6" t="s">
         <v>755</v>
       </c>
       <c r="B149" s="11" t="s">
@@ -11147,24 +11145,24 @@
       <c r="I149" s="12">
         <v>74.79</v>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="J149" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K149" s="2">
+      <c r="K149" s="6">
         <v>11050.0</v>
       </c>
-      <c r="L149" s="2" t="s">
+      <c r="L149" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="6" t="s">
         <v>758</v>
       </c>
-      <c r="N149" s="2" t="s">
+      <c r="N149" s="6" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="2" t="s">
+      <c r="A150" s="6" t="s">
         <v>760</v>
       </c>
       <c r="B150" s="11" t="s">
@@ -11191,24 +11189,24 @@
       <c r="I150" s="12">
         <v>76.44</v>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="J150" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K150" s="2">
+      <c r="K150" s="6">
         <v>11170.0</v>
       </c>
-      <c r="L150" s="2" t="s">
+      <c r="L150" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M150" s="2" t="s">
+      <c r="M150" s="6" t="s">
         <v>763</v>
       </c>
-      <c r="N150" s="2" t="s">
+      <c r="N150" s="6" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" s="2" t="s">
+      <c r="A151" s="6" t="s">
         <v>765</v>
       </c>
       <c r="B151" s="11" t="s">
@@ -11235,24 +11233,24 @@
       <c r="I151" s="12">
         <v>72.39</v>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="J151" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K151" s="2">
+      <c r="K151" s="6">
         <v>11180.0</v>
       </c>
-      <c r="L151" s="2" t="s">
+      <c r="L151" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="6" t="s">
         <v>768</v>
       </c>
-      <c r="N151" s="2" t="s">
+      <c r="N151" s="6" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="2" t="s">
+      <c r="A152" s="6" t="s">
         <v>770</v>
       </c>
       <c r="B152" s="11" t="s">
@@ -11279,24 +11277,24 @@
       <c r="I152" s="12">
         <v>77.28</v>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K152" s="2">
+      <c r="K152" s="6">
         <v>11110.0</v>
       </c>
-      <c r="L152" s="2" t="s">
+      <c r="L152" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="6" t="s">
         <v>773</v>
       </c>
-      <c r="N152" s="2" t="s">
+      <c r="N152" s="6" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="2" t="s">
+      <c r="A153" s="6" t="s">
         <v>775</v>
       </c>
       <c r="B153" s="11" t="s">
@@ -11323,24 +11321,24 @@
       <c r="I153" s="12">
         <v>75.57</v>
       </c>
-      <c r="J153" s="2" t="s">
+      <c r="J153" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K153" s="2">
+      <c r="K153" s="6">
         <v>11100.0</v>
       </c>
-      <c r="L153" s="2" t="s">
+      <c r="L153" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M153" s="2" t="s">
+      <c r="M153" s="6" t="s">
         <v>778</v>
       </c>
-      <c r="N153" s="2" t="s">
+      <c r="N153" s="6" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" s="2" t="s">
+      <c r="A154" s="6" t="s">
         <v>780</v>
       </c>
       <c r="B154" s="11" t="s">
@@ -11367,24 +11365,24 @@
       <c r="I154" s="12">
         <v>73.96</v>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="J154" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K154" s="2">
+      <c r="K154" s="6">
         <v>11060.0</v>
       </c>
-      <c r="L154" s="2" t="s">
+      <c r="L154" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M154" s="2" t="s">
+      <c r="M154" s="6" t="s">
         <v>783</v>
       </c>
-      <c r="N154" s="2" t="s">
+      <c r="N154" s="6" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="2" t="s">
+      <c r="A155" s="6" t="s">
         <v>785</v>
       </c>
       <c r="B155" s="11" t="s">
@@ -11411,24 +11409,24 @@
       <c r="I155" s="12">
         <v>76.58</v>
       </c>
-      <c r="J155" s="2" t="s">
+      <c r="J155" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K155" s="2">
+      <c r="K155" s="6">
         <v>11200.0</v>
       </c>
-      <c r="L155" s="2" t="s">
+      <c r="L155" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M155" s="2" t="s">
+      <c r="M155" s="6" t="s">
         <v>788</v>
       </c>
-      <c r="N155" s="2" t="s">
+      <c r="N155" s="6" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" s="2" t="s">
+      <c r="A156" s="6" t="s">
         <v>790</v>
       </c>
       <c r="B156" s="11" t="s">
@@ -11455,24 +11453,24 @@
       <c r="I156" s="12">
         <v>75.7</v>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="J156" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K156" s="2">
+      <c r="K156" s="6">
         <v>11140.0</v>
       </c>
-      <c r="L156" s="2" t="s">
+      <c r="L156" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="6" t="s">
         <v>793</v>
       </c>
-      <c r="N156" s="2" t="s">
+      <c r="N156" s="6" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="2" t="s">
+      <c r="A157" s="6" t="s">
         <v>795</v>
       </c>
       <c r="B157" s="11" t="s">
@@ -11499,24 +11497,24 @@
       <c r="I157" s="12">
         <v>74.58</v>
       </c>
-      <c r="J157" s="2" t="s">
+      <c r="J157" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K157" s="2">
+      <c r="K157" s="6">
         <v>11130.0</v>
       </c>
-      <c r="L157" s="2" t="s">
+      <c r="L157" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="6" t="s">
         <v>798</v>
       </c>
-      <c r="N157" s="2" t="s">
+      <c r="N157" s="6" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="s">
+      <c r="A158" s="6" t="s">
         <v>800</v>
       </c>
       <c r="B158" s="11" t="s">
@@ -11543,24 +11541,24 @@
       <c r="I158" s="12">
         <v>76.5</v>
       </c>
-      <c r="J158" s="2" t="s">
+      <c r="J158" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K158" s="2">
+      <c r="K158" s="6">
         <v>11220.0</v>
       </c>
-      <c r="L158" s="2" t="s">
+      <c r="L158" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M158" s="2" t="s">
+      <c r="M158" s="6" t="s">
         <v>803</v>
       </c>
-      <c r="N158" s="2" t="s">
+      <c r="N158" s="6" t="s">
         <v>804</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="s">
+      <c r="A159" s="6" t="s">
         <v>805</v>
       </c>
       <c r="B159" s="11" t="s">
@@ -11587,24 +11585,24 @@
       <c r="I159" s="12">
         <v>73.98</v>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="J159" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K159" s="2">
+      <c r="K159" s="6">
         <v>11040.0</v>
       </c>
-      <c r="L159" s="2" t="s">
+      <c r="L159" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="6" t="s">
         <v>808</v>
       </c>
-      <c r="N159" s="2" t="s">
+      <c r="N159" s="6" t="s">
         <v>809</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="s">
+      <c r="A160" s="6" t="s">
         <v>810</v>
       </c>
       <c r="B160" s="11" t="s">
@@ -11631,24 +11629,24 @@
       <c r="I160" s="12">
         <v>74.12</v>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="J160" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K160" s="2">
+      <c r="K160" s="6">
         <v>11080.0</v>
       </c>
-      <c r="L160" s="2" t="s">
+      <c r="L160" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M160" s="2" t="s">
+      <c r="M160" s="6" t="s">
         <v>813</v>
       </c>
-      <c r="N160" s="2" t="s">
+      <c r="N160" s="6" t="s">
         <v>814</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="s">
+      <c r="A161" s="6" t="s">
         <v>815</v>
       </c>
       <c r="B161" s="11" t="s">
@@ -11675,24 +11673,24 @@
       <c r="I161" s="12">
         <v>76.61</v>
       </c>
-      <c r="J161" s="2" t="s">
+      <c r="J161" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K161" s="2">
+      <c r="K161" s="6">
         <v>11240.0</v>
       </c>
-      <c r="L161" s="2" t="s">
+      <c r="L161" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="6" t="s">
         <v>818</v>
       </c>
-      <c r="N161" s="2" t="s">
+      <c r="N161" s="6" t="s">
         <v>819</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="6" t="s">
         <v>820</v>
       </c>
       <c r="B162" s="11" t="s">
@@ -11719,24 +11717,24 @@
       <c r="I162" s="12">
         <v>76.24</v>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="J162" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K162" s="2">
+      <c r="K162" s="6">
         <v>11150.0</v>
       </c>
-      <c r="L162" s="2" t="s">
+      <c r="L162" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="6" t="s">
         <v>823</v>
       </c>
-      <c r="N162" s="2" t="s">
+      <c r="N162" s="6" t="s">
         <v>824</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="s">
+      <c r="A163" s="6" t="s">
         <v>825</v>
       </c>
       <c r="B163" s="11" t="s">
@@ -11763,24 +11761,24 @@
       <c r="I163" s="12">
         <v>74.8</v>
       </c>
-      <c r="J163" s="2" t="s">
+      <c r="J163" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K163" s="2">
+      <c r="K163" s="6">
         <v>11190.0</v>
       </c>
-      <c r="L163" s="2" t="s">
+      <c r="L163" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="6" t="s">
         <v>828</v>
       </c>
-      <c r="N163" s="2" t="s">
+      <c r="N163" s="6" t="s">
         <v>829</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" s="2" t="s">
+      <c r="A164" s="6" t="s">
         <v>830</v>
       </c>
       <c r="B164" s="11" t="s">
@@ -11807,24 +11805,24 @@
       <c r="I164" s="12">
         <v>71.19</v>
       </c>
-      <c r="J164" s="2" t="s">
+      <c r="J164" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K164" s="2">
+      <c r="K164" s="6">
         <v>11030.0</v>
       </c>
-      <c r="L164" s="2" t="s">
+      <c r="L164" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M164" s="2" t="s">
+      <c r="M164" s="6" t="s">
         <v>833</v>
       </c>
-      <c r="N164" s="2" t="s">
+      <c r="N164" s="6" t="s">
         <v>834</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" s="2" t="s">
+      <c r="A165" s="6" t="s">
         <v>835</v>
       </c>
       <c r="B165" s="11" t="s">
@@ -11851,24 +11849,24 @@
       <c r="I165" s="12">
         <v>73.09</v>
       </c>
-      <c r="J165" s="2" t="s">
+      <c r="J165" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K165" s="2">
+      <c r="K165" s="6">
         <v>11120.0</v>
       </c>
-      <c r="L165" s="2" t="s">
+      <c r="L165" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="6" t="s">
         <v>838</v>
       </c>
-      <c r="N165" s="2" t="s">
+      <c r="N165" s="6" t="s">
         <v>839</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="2" t="s">
+      <c r="A166" s="6" t="s">
         <v>840</v>
       </c>
       <c r="B166" s="11" t="s">
@@ -11895,24 +11893,24 @@
       <c r="I166" s="12">
         <v>72.56</v>
       </c>
-      <c r="J166" s="2" t="s">
+      <c r="J166" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K166" s="2">
+      <c r="K166" s="6">
         <v>11010.0</v>
       </c>
-      <c r="L166" s="2" t="s">
+      <c r="L166" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="6" t="s">
         <v>843</v>
       </c>
-      <c r="N166" s="2" t="s">
+      <c r="N166" s="6" t="s">
         <v>844</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" s="2" t="s">
+      <c r="A167" s="6" t="s">
         <v>845</v>
       </c>
       <c r="B167" s="11" t="s">
@@ -11939,24 +11937,24 @@
       <c r="I167" s="12">
         <v>71.61</v>
       </c>
-      <c r="J167" s="2" t="s">
+      <c r="J167" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K167" s="2">
+      <c r="K167" s="6">
         <v>11020.0</v>
       </c>
-      <c r="L167" s="2" t="s">
+      <c r="L167" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M167" s="2" t="s">
+      <c r="M167" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="N167" s="2" t="s">
+      <c r="N167" s="6" t="s">
         <v>848</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="s">
+      <c r="A168" s="6" t="s">
         <v>849</v>
       </c>
       <c r="B168" s="11" t="s">
@@ -11983,24 +11981,24 @@
       <c r="I168" s="12">
         <v>72.33</v>
       </c>
-      <c r="J168" s="2" t="s">
+      <c r="J168" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K168" s="2">
+      <c r="K168" s="6">
         <v>11070.0</v>
       </c>
-      <c r="L168" s="2" t="s">
+      <c r="L168" s="6" t="s">
         <v>733</v>
       </c>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="6" t="s">
         <v>852</v>
       </c>
-      <c r="N168" s="2" t="s">
+      <c r="N168" s="6" t="s">
         <v>853</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="s">
+      <c r="A169" s="6" t="s">
         <v>854</v>
       </c>
       <c r="B169" s="11" t="s">
@@ -12027,24 +12025,24 @@
       <c r="I169" s="12">
         <v>73.76</v>
       </c>
-      <c r="J169" s="2" t="s">
+      <c r="J169" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K169" s="2">
+      <c r="K169" s="6">
         <v>29010.0</v>
       </c>
-      <c r="L169" s="2" t="s">
+      <c r="L169" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="6" t="s">
         <v>857</v>
       </c>
-      <c r="N169" s="2" t="s">
+      <c r="N169" s="6" t="s">
         <v>857</v>
       </c>
     </row>
     <row r="170">
-      <c r="A170" s="2" t="s">
+      <c r="A170" s="6" t="s">
         <v>858</v>
       </c>
       <c r="B170" s="11" t="s">
@@ -12071,24 +12069,24 @@
       <c r="I170" s="12">
         <v>78.28</v>
       </c>
-      <c r="J170" s="2" t="s">
+      <c r="J170" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K170" s="2">
+      <c r="K170" s="6">
         <v>26020.0</v>
       </c>
-      <c r="L170" s="2" t="s">
+      <c r="L170" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="M170" s="2" t="s">
+      <c r="M170" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="N170" s="2" t="s">
+      <c r="N170" s="6" t="s">
         <v>862</v>
       </c>
     </row>
     <row r="171">
-      <c r="A171" s="2" t="s">
+      <c r="A171" s="6" t="s">
         <v>863</v>
       </c>
       <c r="B171" s="11" t="s">
@@ -12115,24 +12113,24 @@
       <c r="I171" s="12">
         <v>77.83</v>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K171" s="2">
+      <c r="K171" s="6">
         <v>26030.0</v>
       </c>
-      <c r="L171" s="2" t="s">
+      <c r="L171" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="N171" s="2" t="s">
+      <c r="N171" s="6" t="s">
         <v>866</v>
       </c>
     </row>
     <row r="172">
-      <c r="A172" s="2" t="s">
+      <c r="A172" s="6" t="s">
         <v>867</v>
       </c>
       <c r="B172" s="11" t="s">
@@ -12159,24 +12157,24 @@
       <c r="I172" s="12">
         <v>79.93</v>
       </c>
-      <c r="J172" s="2" t="s">
+      <c r="J172" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K172" s="2">
+      <c r="K172" s="6">
         <v>26040.0</v>
       </c>
-      <c r="L172" s="2" t="s">
+      <c r="L172" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="M172" s="2" t="s">
+      <c r="M172" s="6" t="s">
         <v>568</v>
       </c>
-      <c r="N172" s="2" t="s">
+      <c r="N172" s="6" t="s">
         <v>870</v>
       </c>
     </row>
     <row r="173">
-      <c r="A173" s="2" t="s">
+      <c r="A173" s="6" t="s">
         <v>871</v>
       </c>
       <c r="B173" s="11" t="s">
@@ -12203,24 +12201,24 @@
       <c r="I173" s="12">
         <v>77.04</v>
       </c>
-      <c r="J173" s="2" t="s">
+      <c r="J173" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K173" s="2">
+      <c r="K173" s="6">
         <v>26310.0</v>
       </c>
-      <c r="L173" s="2" t="s">
+      <c r="L173" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="6" t="s">
         <v>874</v>
       </c>
-      <c r="N173" s="2" t="s">
+      <c r="N173" s="6" t="s">
         <v>875</v>
       </c>
     </row>
     <row r="174">
-      <c r="A174" s="2" t="s">
+      <c r="A174" s="6" t="s">
         <v>876</v>
       </c>
       <c r="B174" s="11" t="s">
@@ -12247,24 +12245,24 @@
       <c r="I174" s="12">
         <v>77.85</v>
       </c>
-      <c r="J174" s="2" t="s">
+      <c r="J174" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K174" s="2">
+      <c r="K174" s="6">
         <v>26010.0</v>
       </c>
-      <c r="L174" s="2" t="s">
+      <c r="L174" s="6" t="s">
         <v>861</v>
       </c>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="N174" s="2" t="s">
+      <c r="N174" s="6" t="s">
         <v>879</v>
       </c>
     </row>
     <row r="175">
-      <c r="A175" s="2" t="s">
+      <c r="A175" s="6" t="s">
         <v>880</v>
       </c>
       <c r="B175" s="11" t="s">
@@ -12291,24 +12289,24 @@
       <c r="I175" s="12">
         <v>74.15</v>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K175" s="2">
+      <c r="K175" s="6">
         <v>23310.0</v>
       </c>
-      <c r="L175" s="2" t="s">
+      <c r="L175" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="N175" s="2" t="s">
+      <c r="N175" s="6" t="s">
         <v>885</v>
       </c>
     </row>
     <row r="176">
-      <c r="A176" s="2" t="s">
+      <c r="A176" s="6" t="s">
         <v>886</v>
       </c>
       <c r="B176" s="11" t="s">
@@ -12335,24 +12333,24 @@
       <c r="I176" s="12">
         <v>73.5</v>
       </c>
-      <c r="J176" s="2" t="s">
+      <c r="J176" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K176" s="2">
+      <c r="K176" s="6">
         <v>23070.0</v>
       </c>
-      <c r="L176" s="2" t="s">
+      <c r="L176" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M176" s="2" t="s">
+      <c r="M176" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="N176" s="2" t="s">
+      <c r="N176" s="6" t="s">
         <v>890</v>
       </c>
     </row>
     <row r="177">
-      <c r="A177" s="2" t="s">
+      <c r="A177" s="6" t="s">
         <v>891</v>
       </c>
       <c r="B177" s="11" t="s">
@@ -12379,24 +12377,24 @@
       <c r="I177" s="12">
         <v>71.52</v>
       </c>
-      <c r="J177" s="2" t="s">
+      <c r="J177" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K177" s="2">
+      <c r="K177" s="6">
         <v>23030.0</v>
       </c>
-      <c r="L177" s="2" t="s">
+      <c r="L177" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="6" t="s">
         <v>563</v>
       </c>
-      <c r="N177" s="2" t="s">
+      <c r="N177" s="6" t="s">
         <v>894</v>
       </c>
     </row>
     <row r="178">
-      <c r="A178" s="2" t="s">
+      <c r="A178" s="6" t="s">
         <v>895</v>
       </c>
       <c r="B178" s="11" t="s">
@@ -12423,24 +12421,24 @@
       <c r="I178" s="12">
         <v>74.35</v>
       </c>
-      <c r="J178" s="2" t="s">
+      <c r="J178" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K178" s="2">
+      <c r="K178" s="6">
         <v>23050.0</v>
       </c>
-      <c r="L178" s="2" t="s">
+      <c r="L178" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M178" s="2" t="s">
+      <c r="M178" s="6" t="s">
         <v>898</v>
       </c>
-      <c r="N178" s="2" t="s">
+      <c r="N178" s="6" t="s">
         <v>899</v>
       </c>
     </row>
     <row r="179">
-      <c r="A179" s="2" t="s">
+      <c r="A179" s="6" t="s">
         <v>900</v>
       </c>
       <c r="B179" s="11" t="s">
@@ -12467,24 +12465,24 @@
       <c r="I179" s="12">
         <v>74.35</v>
       </c>
-      <c r="J179" s="2" t="s">
+      <c r="J179" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K179" s="2">
+      <c r="K179" s="6">
         <v>23020.0</v>
       </c>
-      <c r="L179" s="2" t="s">
+      <c r="L179" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="6" t="s">
         <v>583</v>
       </c>
-      <c r="N179" s="2" t="s">
+      <c r="N179" s="6" t="s">
         <v>903</v>
       </c>
     </row>
     <row r="180">
-      <c r="A180" s="2" t="s">
+      <c r="A180" s="6" t="s">
         <v>904</v>
       </c>
       <c r="B180" s="11" t="s">
@@ -12511,24 +12509,24 @@
       <c r="I180" s="12">
         <v>73.92</v>
       </c>
-      <c r="J180" s="2" t="s">
+      <c r="J180" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K180" s="2">
+      <c r="K180" s="6">
         <v>23060.0</v>
       </c>
-      <c r="L180" s="2" t="s">
+      <c r="L180" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M180" s="2" t="s">
+      <c r="M180" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="N180" s="2" t="s">
+      <c r="N180" s="6" t="s">
         <v>908</v>
       </c>
     </row>
     <row r="181">
-      <c r="A181" s="2" t="s">
+      <c r="A181" s="6" t="s">
         <v>909</v>
       </c>
       <c r="B181" s="11" t="s">
@@ -12555,24 +12553,24 @@
       <c r="I181" s="12">
         <v>74.03</v>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K181" s="2">
+      <c r="K181" s="6">
         <v>23080.0</v>
       </c>
-      <c r="L181" s="2" t="s">
+      <c r="L181" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="6" t="s">
         <v>592</v>
       </c>
-      <c r="N181" s="2" t="s">
+      <c r="N181" s="6" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="182">
-      <c r="A182" s="2" t="s">
+      <c r="A182" s="6" t="s">
         <v>913</v>
       </c>
       <c r="B182" s="11" t="s">
@@ -12599,24 +12597,24 @@
       <c r="I182" s="12">
         <v>76.46</v>
       </c>
-      <c r="J182" s="2" t="s">
+      <c r="J182" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K182" s="2">
+      <c r="K182" s="6">
         <v>23040.0</v>
       </c>
-      <c r="L182" s="2" t="s">
+      <c r="L182" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="6" t="s">
         <v>916</v>
       </c>
-      <c r="N182" s="2" t="s">
+      <c r="N182" s="6" t="s">
         <v>917</v>
       </c>
     </row>
     <row r="183">
-      <c r="A183" s="2" t="s">
+      <c r="A183" s="6" t="s">
         <v>918</v>
       </c>
       <c r="B183" s="11" t="s">
@@ -12643,24 +12641,24 @@
       <c r="I183" s="12">
         <v>73.87</v>
       </c>
-      <c r="J183" s="2" t="s">
+      <c r="J183" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K183" s="2">
+      <c r="K183" s="6">
         <v>23320.0</v>
       </c>
-      <c r="L183" s="2" t="s">
+      <c r="L183" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="6" t="s">
         <v>921</v>
       </c>
-      <c r="N183" s="2" t="s">
+      <c r="N183" s="6" t="s">
         <v>922</v>
       </c>
     </row>
     <row r="184">
-      <c r="A184" s="2" t="s">
+      <c r="A184" s="6" t="s">
         <v>923</v>
       </c>
       <c r="B184" s="11" t="s">
@@ -12687,24 +12685,24 @@
       <c r="I184" s="12">
         <v>70.44</v>
       </c>
-      <c r="J184" s="2" t="s">
+      <c r="J184" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K184" s="2">
+      <c r="K184" s="6">
         <v>23010.0</v>
       </c>
-      <c r="L184" s="2" t="s">
+      <c r="L184" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="6" t="s">
         <v>629</v>
       </c>
-      <c r="N184" s="2" t="s">
+      <c r="N184" s="6" t="s">
         <v>926</v>
       </c>
     </row>
     <row r="185">
-      <c r="A185" s="2" t="s">
+      <c r="A185" s="6" t="s">
         <v>927</v>
       </c>
       <c r="B185" s="11" t="s">
@@ -12731,24 +12729,24 @@
       <c r="I185" s="12">
         <v>73.75</v>
       </c>
-      <c r="J185" s="2" t="s">
+      <c r="J185" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K185" s="2">
+      <c r="K185" s="6">
         <v>36390.0</v>
       </c>
-      <c r="L185" s="2" t="s">
+      <c r="L185" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="6" t="s">
         <v>931</v>
       </c>
-      <c r="N185" s="2" t="s">
+      <c r="N185" s="6" t="s">
         <v>932</v>
       </c>
     </row>
     <row r="186">
-      <c r="A186" s="2" t="s">
+      <c r="A186" s="6" t="s">
         <v>933</v>
       </c>
       <c r="B186" s="11" t="s">
@@ -12775,24 +12773,24 @@
       <c r="I186" s="12">
         <v>75.42</v>
       </c>
-      <c r="J186" s="2" t="s">
+      <c r="J186" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K186" s="2">
+      <c r="K186" s="6">
         <v>36350.0</v>
       </c>
-      <c r="L186" s="2" t="s">
+      <c r="L186" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M186" s="2" t="s">
+      <c r="M186" s="6" t="s">
         <v>936</v>
       </c>
-      <c r="N186" s="2" t="s">
+      <c r="N186" s="6" t="s">
         <v>937</v>
       </c>
     </row>
     <row r="187">
-      <c r="A187" s="2" t="s">
+      <c r="A187" s="6" t="s">
         <v>938</v>
       </c>
       <c r="B187" s="11" t="s">
@@ -12819,24 +12817,24 @@
       <c r="I187" s="12">
         <v>77.06</v>
       </c>
-      <c r="J187" s="2" t="s">
+      <c r="J187" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K187" s="2">
+      <c r="K187" s="6">
         <v>36320.0</v>
       </c>
-      <c r="L187" s="2" t="s">
+      <c r="L187" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="6" t="s">
         <v>941</v>
       </c>
-      <c r="N187" s="2" t="s">
+      <c r="N187" s="6" t="s">
         <v>942</v>
       </c>
     </row>
     <row r="188">
-      <c r="A188" s="2" t="s">
+      <c r="A188" s="6" t="s">
         <v>943</v>
       </c>
       <c r="B188" s="11" t="s">
@@ -12863,24 +12861,24 @@
       <c r="I188" s="12">
         <v>77.73</v>
       </c>
-      <c r="J188" s="2" t="s">
+      <c r="J188" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K188" s="2">
+      <c r="K188" s="6">
         <v>36060.0</v>
       </c>
-      <c r="L188" s="2" t="s">
+      <c r="L188" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="6" t="s">
         <v>946</v>
       </c>
-      <c r="N188" s="2" t="s">
+      <c r="N188" s="6" t="s">
         <v>947</v>
       </c>
     </row>
     <row r="189">
-      <c r="A189" s="2" t="s">
+      <c r="A189" s="6" t="s">
         <v>948</v>
       </c>
       <c r="B189" s="11" t="s">
@@ -12907,24 +12905,24 @@
       <c r="I189" s="12">
         <v>77.07</v>
       </c>
-      <c r="J189" s="2" t="s">
+      <c r="J189" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K189" s="2">
+      <c r="K189" s="6">
         <v>36330.0</v>
       </c>
-      <c r="L189" s="2" t="s">
+      <c r="L189" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M189" s="2" t="s">
+      <c r="M189" s="6" t="s">
         <v>951</v>
       </c>
-      <c r="N189" s="2" t="s">
+      <c r="N189" s="6" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="190">
-      <c r="A190" s="2" t="s">
+      <c r="A190" s="6" t="s">
         <v>953</v>
       </c>
       <c r="B190" s="11" t="s">
@@ -12951,24 +12949,24 @@
       <c r="I190" s="12">
         <v>76.44</v>
       </c>
-      <c r="J190" s="2" t="s">
+      <c r="J190" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K190" s="2">
+      <c r="K190" s="6">
         <v>36040.0</v>
       </c>
-      <c r="L190" s="2" t="s">
+      <c r="L190" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="6" t="s">
         <v>956</v>
       </c>
-      <c r="N190" s="2" t="s">
+      <c r="N190" s="6" t="s">
         <v>957</v>
       </c>
     </row>
     <row r="191">
-      <c r="A191" s="2" t="s">
+      <c r="A191" s="6" t="s">
         <v>958</v>
       </c>
       <c r="B191" s="11" t="s">
@@ -12995,24 +12993,24 @@
       <c r="I191" s="12">
         <v>77.52</v>
       </c>
-      <c r="J191" s="2" t="s">
+      <c r="J191" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K191" s="2">
+      <c r="K191" s="6">
         <v>36310.0</v>
       </c>
-      <c r="L191" s="2" t="s">
+      <c r="L191" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M191" s="2" t="s">
+      <c r="M191" s="6" t="s">
         <v>961</v>
       </c>
-      <c r="N191" s="2" t="s">
+      <c r="N191" s="6" t="s">
         <v>962</v>
       </c>
     </row>
     <row r="192">
-      <c r="A192" s="2" t="s">
+      <c r="A192" s="6" t="s">
         <v>963</v>
       </c>
       <c r="B192" s="11" t="s">
@@ -13039,24 +13037,24 @@
       <c r="I192" s="12">
         <v>75.52</v>
       </c>
-      <c r="J192" s="2" t="s">
+      <c r="J192" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K192" s="2">
+      <c r="K192" s="6">
         <v>36010.0</v>
       </c>
-      <c r="L192" s="2" t="s">
+      <c r="L192" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="6" t="s">
         <v>966</v>
       </c>
-      <c r="N192" s="2" t="s">
+      <c r="N192" s="6" t="s">
         <v>967</v>
       </c>
     </row>
     <row r="193">
-      <c r="A193" s="2" t="s">
+      <c r="A193" s="6" t="s">
         <v>968</v>
       </c>
       <c r="B193" s="11" t="s">
@@ -13083,24 +13081,24 @@
       <c r="I193" s="12">
         <v>77.13</v>
       </c>
-      <c r="J193" s="2" t="s">
+      <c r="J193" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K193" s="2">
+      <c r="K193" s="6">
         <v>36420.0</v>
       </c>
-      <c r="L193" s="2" t="s">
+      <c r="L193" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="6" t="s">
         <v>971</v>
       </c>
-      <c r="N193" s="2" t="s">
+      <c r="N193" s="6" t="s">
         <v>972</v>
       </c>
     </row>
     <row r="194">
-      <c r="A194" s="2" t="s">
+      <c r="A194" s="6" t="s">
         <v>973</v>
       </c>
       <c r="B194" s="11" t="s">
@@ -13127,24 +13125,24 @@
       <c r="I194" s="12">
         <v>74.32</v>
       </c>
-      <c r="J194" s="2" t="s">
+      <c r="J194" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K194" s="2">
+      <c r="K194" s="6">
         <v>36360.0</v>
       </c>
-      <c r="L194" s="2" t="s">
+      <c r="L194" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="6" t="s">
         <v>976</v>
       </c>
-      <c r="N194" s="2" t="s">
+      <c r="N194" s="6" t="s">
         <v>977</v>
       </c>
     </row>
     <row r="195">
-      <c r="A195" s="2" t="s">
+      <c r="A195" s="6" t="s">
         <v>978</v>
       </c>
       <c r="B195" s="11" t="s">
@@ -13171,24 +13169,24 @@
       <c r="I195" s="12">
         <v>78.92</v>
       </c>
-      <c r="J195" s="2" t="s">
+      <c r="J195" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K195" s="2">
+      <c r="K195" s="6">
         <v>36030.0</v>
       </c>
-      <c r="L195" s="2" t="s">
+      <c r="L195" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M195" s="2" t="s">
+      <c r="M195" s="6" t="s">
         <v>981</v>
       </c>
-      <c r="N195" s="2" t="s">
+      <c r="N195" s="6" t="s">
         <v>982</v>
       </c>
     </row>
     <row r="196">
-      <c r="A196" s="2" t="s">
+      <c r="A196" s="6" t="s">
         <v>983</v>
       </c>
       <c r="B196" s="11" t="s">
@@ -13215,24 +13213,24 @@
       <c r="I196" s="12">
         <v>68.97</v>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K196" s="2">
+      <c r="K196" s="6">
         <v>36480.0</v>
       </c>
-      <c r="L196" s="2" t="s">
+      <c r="L196" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M196" s="2" t="s">
+      <c r="M196" s="6" t="s">
         <v>986</v>
       </c>
-      <c r="N196" s="2" t="s">
+      <c r="N196" s="6" t="s">
         <v>987</v>
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="s">
+      <c r="A197" s="6" t="s">
         <v>988</v>
       </c>
       <c r="B197" s="11" t="s">
@@ -13259,24 +13257,24 @@
       <c r="I197" s="12">
         <v>76.36</v>
       </c>
-      <c r="J197" s="2" t="s">
+      <c r="J197" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K197" s="2">
+      <c r="K197" s="6">
         <v>36020.0</v>
       </c>
-      <c r="L197" s="2" t="s">
+      <c r="L197" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="6" t="s">
         <v>991</v>
       </c>
-      <c r="N197" s="2" t="s">
+      <c r="N197" s="6" t="s">
         <v>992</v>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="s">
+      <c r="A198" s="6" t="s">
         <v>993</v>
       </c>
       <c r="B198" s="11" t="s">
@@ -13303,24 +13301,24 @@
       <c r="I198" s="12">
         <v>74.43</v>
       </c>
-      <c r="J198" s="2" t="s">
+      <c r="J198" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K198" s="2">
+      <c r="K198" s="6">
         <v>36440.0</v>
       </c>
-      <c r="L198" s="2" t="s">
+      <c r="L198" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M198" s="2" t="s">
+      <c r="M198" s="6" t="s">
         <v>996</v>
       </c>
-      <c r="N198" s="2" t="s">
+      <c r="N198" s="6" t="s">
         <v>997</v>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="s">
+      <c r="A199" s="6" t="s">
         <v>998</v>
       </c>
       <c r="B199" s="11" t="s">
@@ -13347,24 +13345,24 @@
       <c r="I199" s="12">
         <v>74.03</v>
       </c>
-      <c r="J199" s="2" t="s">
+      <c r="J199" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K199" s="2">
+      <c r="K199" s="6">
         <v>36410.0</v>
       </c>
-      <c r="L199" s="2" t="s">
+      <c r="L199" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="6" t="s">
         <v>1001</v>
       </c>
-      <c r="N199" s="2" t="s">
+      <c r="N199" s="6" t="s">
         <v>1002</v>
       </c>
     </row>
     <row r="200">
-      <c r="A200" s="2" t="s">
+      <c r="A200" s="6" t="s">
         <v>1003</v>
       </c>
       <c r="B200" s="11" t="s">
@@ -13391,24 +13389,24 @@
       <c r="I200" s="12">
         <v>74.77</v>
       </c>
-      <c r="J200" s="2" t="s">
+      <c r="J200" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K200" s="2">
+      <c r="K200" s="6">
         <v>36460.0</v>
       </c>
-      <c r="L200" s="2" t="s">
+      <c r="L200" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="6" t="s">
         <v>1006</v>
       </c>
-      <c r="N200" s="2" t="s">
+      <c r="N200" s="6" t="s">
         <v>1007</v>
       </c>
     </row>
     <row r="201">
-      <c r="A201" s="2" t="s">
+      <c r="A201" s="6" t="s">
         <v>1008</v>
       </c>
       <c r="B201" s="11" t="s">
@@ -13435,24 +13433,24 @@
       <c r="I201" s="12">
         <v>75.91</v>
       </c>
-      <c r="J201" s="2" t="s">
+      <c r="J201" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K201" s="2">
+      <c r="K201" s="6">
         <v>36450.0</v>
       </c>
-      <c r="L201" s="2" t="s">
+      <c r="L201" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M201" s="2" t="s">
+      <c r="M201" s="6" t="s">
         <v>1011</v>
       </c>
-      <c r="N201" s="2" t="s">
+      <c r="N201" s="6" t="s">
         <v>1012</v>
       </c>
     </row>
     <row r="202">
-      <c r="A202" s="2" t="s">
+      <c r="A202" s="6" t="s">
         <v>1013</v>
       </c>
       <c r="B202" s="11" t="s">
@@ -13479,24 +13477,24 @@
       <c r="I202" s="12">
         <v>75.5</v>
       </c>
-      <c r="J202" s="2" t="s">
+      <c r="J202" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K202" s="2">
+      <c r="K202" s="6">
         <v>36380.0</v>
       </c>
-      <c r="L202" s="2" t="s">
+      <c r="L202" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="6" t="s">
         <v>1016</v>
       </c>
-      <c r="N202" s="2" t="s">
+      <c r="N202" s="6" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="203">
-      <c r="A203" s="2" t="s">
+      <c r="A203" s="6" t="s">
         <v>1018</v>
       </c>
       <c r="B203" s="11" t="s">
@@ -13523,24 +13521,24 @@
       <c r="I203" s="12">
         <v>72.87</v>
       </c>
-      <c r="J203" s="2" t="s">
+      <c r="J203" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K203" s="2">
+      <c r="K203" s="6">
         <v>36470.0</v>
       </c>
-      <c r="L203" s="2" t="s">
+      <c r="L203" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M203" s="2" t="s">
+      <c r="M203" s="6" t="s">
         <v>1021</v>
       </c>
-      <c r="N203" s="2" t="s">
+      <c r="N203" s="6" t="s">
         <v>1022</v>
       </c>
     </row>
     <row r="204">
-      <c r="A204" s="2" t="s">
+      <c r="A204" s="6" t="s">
         <v>1023</v>
       </c>
       <c r="B204" s="11" t="s">
@@ -13567,24 +13565,24 @@
       <c r="I204" s="12">
         <v>75.65</v>
       </c>
-      <c r="J204" s="2" t="s">
+      <c r="J204" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K204" s="2">
+      <c r="K204" s="6">
         <v>36430.0</v>
       </c>
-      <c r="L204" s="2" t="s">
+      <c r="L204" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M204" s="2" t="s">
+      <c r="M204" s="6" t="s">
         <v>1026</v>
       </c>
-      <c r="N204" s="2" t="s">
+      <c r="N204" s="6" t="s">
         <v>1027</v>
       </c>
     </row>
     <row r="205">
-      <c r="A205" s="2" t="s">
+      <c r="A205" s="6" t="s">
         <v>1028</v>
       </c>
       <c r="B205" s="11" t="s">
@@ -13611,24 +13609,24 @@
       <c r="I205" s="12">
         <v>72.38</v>
       </c>
-      <c r="J205" s="2" t="s">
+      <c r="J205" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K205" s="2">
+      <c r="K205" s="6">
         <v>36400.0</v>
       </c>
-      <c r="L205" s="2" t="s">
+      <c r="L205" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="6" t="s">
         <v>1031</v>
       </c>
-      <c r="N205" s="2" t="s">
+      <c r="N205" s="6" t="s">
         <v>1032</v>
       </c>
     </row>
     <row r="206">
-      <c r="A206" s="2" t="s">
+      <c r="A206" s="6" t="s">
         <v>1033</v>
       </c>
       <c r="B206" s="11" t="s">
@@ -13655,24 +13653,24 @@
       <c r="I206" s="12">
         <v>76.58</v>
       </c>
-      <c r="J206" s="2" t="s">
+      <c r="J206" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K206" s="2">
+      <c r="K206" s="6">
         <v>36370.0</v>
       </c>
-      <c r="L206" s="2" t="s">
+      <c r="L206" s="6" t="s">
         <v>930</v>
       </c>
-      <c r="M206" s="2" t="s">
+      <c r="M206" s="6" t="s">
         <v>1036</v>
       </c>
-      <c r="N206" s="2" t="s">
+      <c r="N206" s="6" t="s">
         <v>1037</v>
       </c>
     </row>
     <row r="207">
-      <c r="A207" s="2" t="s">
+      <c r="A207" s="6" t="s">
         <v>1038</v>
       </c>
       <c r="B207" s="11" t="s">
@@ -13699,24 +13697,24 @@
       <c r="I207" s="12">
         <v>74.43</v>
       </c>
-      <c r="J207" s="2" t="s">
+      <c r="J207" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K207" s="2">
+      <c r="K207" s="6">
         <v>35370.0</v>
       </c>
-      <c r="L207" s="2" t="s">
+      <c r="L207" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M207" s="2" t="s">
+      <c r="M207" s="6" t="s">
         <v>1042</v>
       </c>
-      <c r="N207" s="2" t="s">
+      <c r="N207" s="6" t="s">
         <v>1043</v>
       </c>
     </row>
     <row r="208">
-      <c r="A208" s="2" t="s">
+      <c r="A208" s="6" t="s">
         <v>1044</v>
       </c>
       <c r="B208" s="11" t="s">
@@ -13743,24 +13741,24 @@
       <c r="I208" s="12">
         <v>74.85</v>
       </c>
-      <c r="J208" s="2" t="s">
+      <c r="J208" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K208" s="2">
+      <c r="K208" s="6">
         <v>35020.0</v>
       </c>
-      <c r="L208" s="2" t="s">
+      <c r="L208" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="6" t="s">
         <v>1047</v>
       </c>
-      <c r="N208" s="2" t="s">
+      <c r="N208" s="6" t="s">
         <v>1048</v>
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2" t="s">
+      <c r="A209" s="6" t="s">
         <v>1049</v>
       </c>
       <c r="B209" s="11" t="s">
@@ -13787,24 +13785,24 @@
       <c r="I209" s="12">
         <v>74.74</v>
       </c>
-      <c r="J209" s="2" t="s">
+      <c r="J209" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K209" s="2">
+      <c r="K209" s="6">
         <v>35060.0</v>
       </c>
-      <c r="L209" s="2" t="s">
+      <c r="L209" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M209" s="2" t="s">
+      <c r="M209" s="6" t="s">
         <v>1052</v>
       </c>
-      <c r="N209" s="2" t="s">
+      <c r="N209" s="6" t="s">
         <v>1053</v>
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="2" t="s">
+      <c r="A210" s="6" t="s">
         <v>1054</v>
       </c>
       <c r="B210" s="11" t="s">
@@ -13831,24 +13829,24 @@
       <c r="I210" s="12">
         <v>76.67</v>
       </c>
-      <c r="J210" s="2" t="s">
+      <c r="J210" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K210" s="2">
+      <c r="K210" s="6">
         <v>35050.0</v>
       </c>
-      <c r="L210" s="2" t="s">
+      <c r="L210" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M210" s="2" t="s">
+      <c r="M210" s="6" t="s">
         <v>1057</v>
       </c>
-      <c r="N210" s="2" t="s">
+      <c r="N210" s="6" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="211">
-      <c r="A211" s="2" t="s">
+      <c r="A211" s="6" t="s">
         <v>1059</v>
       </c>
       <c r="B211" s="11" t="s">
@@ -13875,24 +13873,24 @@
       <c r="I211" s="12">
         <v>74.74</v>
       </c>
-      <c r="J211" s="2" t="s">
+      <c r="J211" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K211" s="2">
+      <c r="K211" s="6">
         <v>35330.0</v>
       </c>
-      <c r="L211" s="2" t="s">
+      <c r="L211" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M211" s="2" t="s">
+      <c r="M211" s="6" t="s">
         <v>1062</v>
       </c>
-      <c r="N211" s="2" t="s">
+      <c r="N211" s="6" t="s">
         <v>1063</v>
       </c>
     </row>
     <row r="212">
-      <c r="A212" s="2" t="s">
+      <c r="A212" s="6" t="s">
         <v>1064</v>
       </c>
       <c r="B212" s="11" t="s">
@@ -13919,24 +13917,24 @@
       <c r="I212" s="12">
         <v>73.0</v>
       </c>
-      <c r="J212" s="2" t="s">
+      <c r="J212" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K212" s="2">
+      <c r="K212" s="6">
         <v>35380.0</v>
       </c>
-      <c r="L212" s="2" t="s">
+      <c r="L212" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="6" t="s">
         <v>1067</v>
       </c>
-      <c r="N212" s="2" t="s">
+      <c r="N212" s="6" t="s">
         <v>1068</v>
       </c>
     </row>
     <row r="213">
-      <c r="A213" s="2" t="s">
+      <c r="A213" s="6" t="s">
         <v>1069</v>
       </c>
       <c r="B213" s="11" t="s">
@@ -13963,24 +13961,24 @@
       <c r="I213" s="12">
         <v>76.47</v>
       </c>
-      <c r="J213" s="2" t="s">
+      <c r="J213" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K213" s="2">
+      <c r="K213" s="6">
         <v>35360.0</v>
       </c>
-      <c r="L213" s="2" t="s">
+      <c r="L213" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M213" s="2" t="s">
+      <c r="M213" s="6" t="s">
         <v>1072</v>
       </c>
-      <c r="N213" s="2" t="s">
+      <c r="N213" s="6" t="s">
         <v>1073</v>
       </c>
     </row>
     <row r="214">
-      <c r="A214" s="2" t="s">
+      <c r="A214" s="6" t="s">
         <v>1074</v>
       </c>
       <c r="B214" s="11" t="s">
@@ -14007,24 +14005,24 @@
       <c r="I214" s="12">
         <v>76.82</v>
       </c>
-      <c r="J214" s="2" t="s">
+      <c r="J214" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K214" s="2">
+      <c r="K214" s="6">
         <v>35310.0</v>
       </c>
-      <c r="L214" s="2" t="s">
+      <c r="L214" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M214" s="2" t="s">
+      <c r="M214" s="6" t="s">
         <v>1077</v>
       </c>
-      <c r="N214" s="2" t="s">
+      <c r="N214" s="6" t="s">
         <v>1078</v>
       </c>
     </row>
     <row r="215">
-      <c r="A215" s="2" t="s">
+      <c r="A215" s="6" t="s">
         <v>1079</v>
       </c>
       <c r="B215" s="11" t="s">
@@ -14051,24 +14049,24 @@
       <c r="I215" s="12">
         <v>75.32</v>
       </c>
-      <c r="J215" s="2" t="s">
+      <c r="J215" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K215" s="2">
+      <c r="K215" s="6">
         <v>35030.0</v>
       </c>
-      <c r="L215" s="2" t="s">
+      <c r="L215" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="6" t="s">
         <v>1082</v>
       </c>
-      <c r="N215" s="2" t="s">
+      <c r="N215" s="6" t="s">
         <v>1083</v>
       </c>
     </row>
     <row r="216">
-      <c r="A216" s="2" t="s">
+      <c r="A216" s="6" t="s">
         <v>1084</v>
       </c>
       <c r="B216" s="11" t="s">
@@ -14095,24 +14093,24 @@
       <c r="I216" s="12">
         <v>75.42</v>
       </c>
-      <c r="J216" s="2" t="s">
+      <c r="J216" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K216" s="2">
+      <c r="K216" s="6">
         <v>35350.0</v>
       </c>
-      <c r="L216" s="2" t="s">
+      <c r="L216" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M216" s="2" t="s">
+      <c r="M216" s="6" t="s">
         <v>1087</v>
       </c>
-      <c r="N216" s="2" t="s">
+      <c r="N216" s="6" t="s">
         <v>1088</v>
       </c>
     </row>
     <row r="217">
-      <c r="A217" s="2" t="s">
+      <c r="A217" s="6" t="s">
         <v>1089</v>
       </c>
       <c r="B217" s="11" t="s">
@@ -14139,24 +14137,24 @@
       <c r="I217" s="12">
         <v>76.69</v>
       </c>
-      <c r="J217" s="2" t="s">
+      <c r="J217" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K217" s="2">
+      <c r="K217" s="6">
         <v>35340.0</v>
       </c>
-      <c r="L217" s="2" t="s">
+      <c r="L217" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M217" s="2" t="s">
+      <c r="M217" s="6" t="s">
         <v>1092</v>
       </c>
-      <c r="N217" s="2" t="s">
+      <c r="N217" s="6" t="s">
         <v>1093</v>
       </c>
     </row>
     <row r="218">
-      <c r="A218" s="2" t="s">
+      <c r="A218" s="6" t="s">
         <v>1094</v>
       </c>
       <c r="B218" s="11" t="s">
@@ -14183,24 +14181,24 @@
       <c r="I218" s="12">
         <v>78.92</v>
       </c>
-      <c r="J218" s="2" t="s">
+      <c r="J218" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K218" s="2">
+      <c r="K218" s="6">
         <v>35012.0</v>
       </c>
-      <c r="L218" s="2" t="s">
+      <c r="L218" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="6" t="s">
         <v>1097</v>
       </c>
-      <c r="N218" s="2" t="s">
+      <c r="N218" s="6" t="s">
         <v>1098</v>
       </c>
     </row>
     <row r="219">
-      <c r="A219" s="2" t="s">
+      <c r="A219" s="6" t="s">
         <v>1099</v>
       </c>
       <c r="B219" s="11" t="s">
@@ -14227,24 +14225,24 @@
       <c r="I219" s="12">
         <v>79.69</v>
       </c>
-      <c r="J219" s="2" t="s">
+      <c r="J219" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K219" s="2">
+      <c r="K219" s="6">
         <v>35011.0</v>
       </c>
-      <c r="L219" s="2" t="s">
+      <c r="L219" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M219" s="2" t="s">
+      <c r="M219" s="6" t="s">
         <v>1102</v>
       </c>
-      <c r="N219" s="2" t="s">
+      <c r="N219" s="6" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="220">
-      <c r="A220" s="2" t="s">
+      <c r="A220" s="6" t="s">
         <v>1104</v>
       </c>
       <c r="B220" s="11" t="s">
@@ -14271,24 +14269,24 @@
       <c r="I220" s="12">
         <v>75.22</v>
       </c>
-      <c r="J220" s="2" t="s">
+      <c r="J220" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K220" s="2">
+      <c r="K220" s="6">
         <v>35040.0</v>
       </c>
-      <c r="L220" s="2" t="s">
+      <c r="L220" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M220" s="2" t="s">
+      <c r="M220" s="6" t="s">
         <v>1107</v>
       </c>
-      <c r="N220" s="2" t="s">
+      <c r="N220" s="6" t="s">
         <v>1108</v>
       </c>
     </row>
     <row r="221">
-      <c r="A221" s="2" t="s">
+      <c r="A221" s="6" t="s">
         <v>1109</v>
       </c>
       <c r="B221" s="11" t="s">
@@ -14315,24 +14313,24 @@
       <c r="I221" s="12">
         <v>75.4</v>
       </c>
-      <c r="J221" s="2" t="s">
+      <c r="J221" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K221" s="2">
+      <c r="K221" s="6">
         <v>35320.0</v>
       </c>
-      <c r="L221" s="2" t="s">
+      <c r="L221" s="6" t="s">
         <v>1041</v>
       </c>
-      <c r="M221" s="2" t="s">
+      <c r="M221" s="6" t="s">
         <v>1112</v>
       </c>
-      <c r="N221" s="2" t="s">
+      <c r="N221" s="6" t="s">
         <v>1113</v>
       </c>
     </row>
     <row r="222">
-      <c r="A222" s="2" t="s">
+      <c r="A222" s="6" t="s">
         <v>1114</v>
       </c>
       <c r="B222" s="11" t="s">
@@ -14359,24 +14357,24 @@
       <c r="I222" s="12">
         <v>72.07</v>
       </c>
-      <c r="J222" s="2" t="s">
+      <c r="J222" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K222" s="2">
+      <c r="K222" s="6">
         <v>39020.0</v>
       </c>
-      <c r="L222" s="2" t="s">
+      <c r="L222" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="M222" s="2" t="s">
+      <c r="M222" s="6" t="s">
         <v>1118</v>
       </c>
-      <c r="N222" s="2" t="s">
+      <c r="N222" s="6" t="s">
         <v>1119</v>
       </c>
     </row>
     <row r="223">
-      <c r="A223" s="2" t="s">
+      <c r="A223" s="6" t="s">
         <v>1120</v>
       </c>
       <c r="B223" s="11" t="s">
@@ -14403,24 +14401,24 @@
       <c r="I223" s="12">
         <v>73.22</v>
       </c>
-      <c r="J223" s="2" t="s">
+      <c r="J223" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K223" s="2">
+      <c r="K223" s="6">
         <v>39010.0</v>
       </c>
-      <c r="L223" s="2" t="s">
+      <c r="L223" s="6" t="s">
         <v>1117</v>
       </c>
-      <c r="M223" s="2" t="s">
+      <c r="M223" s="6" t="s">
         <v>1123</v>
       </c>
-      <c r="N223" s="2" t="s">
+      <c r="N223" s="6" t="s">
         <v>1124</v>
       </c>
     </row>
     <row r="224">
-      <c r="A224" s="2" t="s">
+      <c r="A224" s="6" t="s">
         <v>1125</v>
       </c>
       <c r="B224" s="11" t="s">
@@ -14447,24 +14445,24 @@
       <c r="I224" s="12">
         <v>78.85</v>
       </c>
-      <c r="J224" s="2" t="s">
+      <c r="J224" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K224" s="2">
+      <c r="K224" s="6">
         <v>34070.0</v>
       </c>
-      <c r="L224" s="2" t="s">
+      <c r="L224" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M224" s="2" t="s">
+      <c r="M224" s="6" t="s">
         <v>1129</v>
       </c>
-      <c r="N224" s="2" t="s">
+      <c r="N224" s="6" t="s">
         <v>1130</v>
       </c>
     </row>
     <row r="225">
-      <c r="A225" s="2" t="s">
+      <c r="A225" s="6" t="s">
         <v>1131</v>
       </c>
       <c r="B225" s="11" t="s">
@@ -14491,24 +14489,24 @@
       <c r="I225" s="12">
         <v>73.26</v>
       </c>
-      <c r="J225" s="2" t="s">
+      <c r="J225" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K225" s="2">
+      <c r="K225" s="6">
         <v>34020.0</v>
       </c>
-      <c r="L225" s="2" t="s">
+      <c r="L225" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="6" t="s">
         <v>1134</v>
       </c>
-      <c r="N225" s="2" t="s">
+      <c r="N225" s="6" t="s">
         <v>1135</v>
       </c>
     </row>
     <row r="226">
-      <c r="A226" s="2" t="s">
+      <c r="A226" s="6" t="s">
         <v>1136</v>
       </c>
       <c r="B226" s="11" t="s">
@@ -14535,24 +14533,24 @@
       <c r="I226" s="12">
         <v>71.96</v>
       </c>
-      <c r="J226" s="2" t="s">
+      <c r="J226" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K226" s="2">
+      <c r="K226" s="6">
         <v>34310.0</v>
       </c>
-      <c r="L226" s="2" t="s">
+      <c r="L226" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M226" s="2" t="s">
+      <c r="M226" s="6" t="s">
         <v>1139</v>
       </c>
-      <c r="N226" s="2" t="s">
+      <c r="N226" s="6" t="s">
         <v>1140</v>
       </c>
     </row>
     <row r="227">
-      <c r="A227" s="2" t="s">
+      <c r="A227" s="6" t="s">
         <v>1141</v>
       </c>
       <c r="B227" s="11" t="s">
@@ -14579,24 +14577,24 @@
       <c r="I227" s="12">
         <v>71.37</v>
       </c>
-      <c r="J227" s="2" t="s">
+      <c r="J227" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K227" s="2">
+      <c r="K227" s="6">
         <v>34060.0</v>
       </c>
-      <c r="L227" s="2" t="s">
+      <c r="L227" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M227" s="2" t="s">
+      <c r="M227" s="6" t="s">
         <v>1144</v>
       </c>
-      <c r="N227" s="2" t="s">
+      <c r="N227" s="6" t="s">
         <v>1145</v>
       </c>
     </row>
     <row r="228">
-      <c r="A228" s="2" t="s">
+      <c r="A228" s="6" t="s">
         <v>1146</v>
       </c>
       <c r="B228" s="11" t="s">
@@ -14623,24 +14621,24 @@
       <c r="I228" s="12">
         <v>70.87</v>
       </c>
-      <c r="J228" s="2" t="s">
+      <c r="J228" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K228" s="2">
+      <c r="K228" s="6">
         <v>34080.0</v>
       </c>
-      <c r="L228" s="2" t="s">
+      <c r="L228" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="6" t="s">
         <v>1149</v>
       </c>
-      <c r="N228" s="2" t="s">
+      <c r="N228" s="6" t="s">
         <v>1150</v>
       </c>
     </row>
     <row r="229">
-      <c r="A229" s="2" t="s">
+      <c r="A229" s="6" t="s">
         <v>1151</v>
       </c>
       <c r="B229" s="11" t="s">
@@ -14667,24 +14665,24 @@
       <c r="I229" s="12">
         <v>72.6</v>
       </c>
-      <c r="J229" s="2" t="s">
+      <c r="J229" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K229" s="2">
+      <c r="K229" s="6">
         <v>34030.0</v>
       </c>
-      <c r="L229" s="2" t="s">
+      <c r="L229" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M229" s="2" t="s">
+      <c r="M229" s="6" t="s">
         <v>1154</v>
       </c>
-      <c r="N229" s="2" t="s">
+      <c r="N229" s="6" t="s">
         <v>1155</v>
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="s">
+      <c r="A230" s="6" t="s">
         <v>1156</v>
       </c>
       <c r="B230" s="11" t="s">
@@ -14711,24 +14709,24 @@
       <c r="I230" s="12">
         <v>73.83</v>
       </c>
-      <c r="J230" s="2" t="s">
+      <c r="J230" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K230" s="2">
+      <c r="K230" s="6">
         <v>34330.0</v>
       </c>
-      <c r="L230" s="2" t="s">
+      <c r="L230" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M230" s="2" t="s">
+      <c r="M230" s="6" t="s">
         <v>1159</v>
       </c>
-      <c r="N230" s="2" t="s">
+      <c r="N230" s="6" t="s">
         <v>1160</v>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="s">
+      <c r="A231" s="6" t="s">
         <v>1161</v>
       </c>
       <c r="B231" s="11" t="s">
@@ -14755,24 +14753,24 @@
       <c r="I231" s="12">
         <v>72.96</v>
       </c>
-      <c r="J231" s="2" t="s">
+      <c r="J231" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K231" s="2">
+      <c r="K231" s="6">
         <v>34050.0</v>
       </c>
-      <c r="L231" s="2" t="s">
+      <c r="L231" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="6" t="s">
         <v>1164</v>
       </c>
-      <c r="N231" s="2" t="s">
+      <c r="N231" s="6" t="s">
         <v>1165</v>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="s">
+      <c r="A232" s="6" t="s">
         <v>1166</v>
       </c>
       <c r="B232" s="11" t="s">
@@ -14799,24 +14797,24 @@
       <c r="I232" s="12">
         <v>71.85</v>
       </c>
-      <c r="J232" s="2" t="s">
+      <c r="J232" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K232" s="2">
+      <c r="K232" s="6">
         <v>34340.0</v>
       </c>
-      <c r="L232" s="2" t="s">
+      <c r="L232" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M232" s="2" t="s">
+      <c r="M232" s="6" t="s">
         <v>1169</v>
       </c>
-      <c r="N232" s="2" t="s">
+      <c r="N232" s="6" t="s">
         <v>1170</v>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="s">
+      <c r="A233" s="6" t="s">
         <v>1171</v>
       </c>
       <c r="B233" s="11" t="s">
@@ -14843,24 +14841,24 @@
       <c r="I233" s="12">
         <v>72.6</v>
       </c>
-      <c r="J233" s="2" t="s">
+      <c r="J233" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K233" s="2">
+      <c r="K233" s="6">
         <v>34040.0</v>
       </c>
-      <c r="L233" s="2" t="s">
+      <c r="L233" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M233" s="2" t="s">
+      <c r="M233" s="6" t="s">
         <v>1174</v>
       </c>
-      <c r="N233" s="2" t="s">
+      <c r="N233" s="6" t="s">
         <v>1175</v>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="s">
+      <c r="A234" s="6" t="s">
         <v>1176</v>
       </c>
       <c r="B234" s="11" t="s">
@@ -14887,24 +14885,24 @@
       <c r="I234" s="12">
         <v>73.51</v>
       </c>
-      <c r="J234" s="2" t="s">
+      <c r="J234" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K234" s="2">
+      <c r="K234" s="6">
         <v>34370.0</v>
       </c>
-      <c r="L234" s="2" t="s">
+      <c r="L234" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="6" t="s">
         <v>1179</v>
       </c>
-      <c r="N234" s="2" t="s">
+      <c r="N234" s="6" t="s">
         <v>1180</v>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="s">
+      <c r="A235" s="6" t="s">
         <v>1181</v>
       </c>
       <c r="B235" s="11" t="s">
@@ -14931,24 +14929,24 @@
       <c r="I235" s="12">
         <v>72.55</v>
       </c>
-      <c r="J235" s="2" t="s">
+      <c r="J235" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K235" s="2">
+      <c r="K235" s="6">
         <v>34011.0</v>
       </c>
-      <c r="L235" s="2" t="s">
+      <c r="L235" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M235" s="2" t="s">
+      <c r="M235" s="6" t="s">
         <v>1184</v>
       </c>
-      <c r="N235" s="2" t="s">
+      <c r="N235" s="6" t="s">
         <v>1185</v>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="s">
+      <c r="A236" s="6" t="s">
         <v>1186</v>
       </c>
       <c r="B236" s="11" t="s">
@@ -14975,24 +14973,24 @@
       <c r="I236" s="12">
         <v>72.56</v>
       </c>
-      <c r="J236" s="2" t="s">
+      <c r="J236" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="K236" s="2">
+      <c r="K236" s="6">
         <v>34012.0</v>
       </c>
-      <c r="L236" s="2" t="s">
+      <c r="L236" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M236" s="2" t="s">
+      <c r="M236" s="6" t="s">
         <v>1189</v>
       </c>
-      <c r="N236" s="2" t="s">
+      <c r="N236" s="6" t="s">
         <v>1190</v>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="s">
+      <c r="A237" s="6" t="s">
         <v>1191</v>
       </c>
       <c r="B237" s="11" t="s">
@@ -15019,24 +15017,24 @@
       <c r="I237" s="12">
         <v>75.1</v>
       </c>
-      <c r="J237" s="2" t="s">
+      <c r="J237" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K237" s="2">
+      <c r="K237" s="6">
         <v>34350.0</v>
       </c>
-      <c r="L237" s="2" t="s">
+      <c r="L237" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="6" t="s">
         <v>1194</v>
       </c>
-      <c r="N237" s="2" t="s">
+      <c r="N237" s="6" t="s">
         <v>1195</v>
       </c>
     </row>
     <row r="238">
-      <c r="A238" s="2" t="s">
+      <c r="A238" s="6" t="s">
         <v>1196</v>
       </c>
       <c r="B238" s="11" t="s">
@@ -15063,24 +15061,24 @@
       <c r="I238" s="12">
         <v>71.6</v>
       </c>
-      <c r="J238" s="2" t="s">
+      <c r="J238" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K238" s="2">
+      <c r="K238" s="6">
         <v>34380.0</v>
       </c>
-      <c r="L238" s="2" t="s">
+      <c r="L238" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M238" s="2" t="s">
+      <c r="M238" s="6" t="s">
         <v>1199</v>
       </c>
-      <c r="N238" s="2" t="s">
+      <c r="N238" s="6" t="s">
         <v>1200</v>
       </c>
     </row>
     <row r="239">
-      <c r="A239" s="2" t="s">
+      <c r="A239" s="6" t="s">
         <v>1201</v>
       </c>
       <c r="B239" s="11" t="s">
@@ -15107,24 +15105,24 @@
       <c r="I239" s="12">
         <v>72.29</v>
       </c>
-      <c r="J239" s="2" t="s">
+      <c r="J239" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K239" s="2">
+      <c r="K239" s="6">
         <v>34360.0</v>
       </c>
-      <c r="L239" s="2" t="s">
+      <c r="L239" s="6" t="s">
         <v>1128</v>
       </c>
-      <c r="M239" s="2" t="s">
+      <c r="M239" s="6" t="s">
         <v>1204</v>
       </c>
-      <c r="N239" s="2" t="s">
+      <c r="N239" s="6" t="s">
         <v>1205</v>
       </c>
     </row>
     <row r="240">
-      <c r="A240" s="2" t="s">
+      <c r="A240" s="6" t="s">
         <v>1206</v>
       </c>
       <c r="B240" s="11" t="s">
@@ -15151,24 +15149,24 @@
       <c r="I240" s="12">
         <v>73.75</v>
       </c>
-      <c r="J240" s="2" t="s">
+      <c r="J240" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K240" s="2">
+      <c r="K240" s="6">
         <v>33360.0</v>
       </c>
-      <c r="L240" s="2" t="s">
+      <c r="L240" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M240" s="2" t="s">
+      <c r="M240" s="6" t="s">
         <v>1210</v>
       </c>
-      <c r="N240" s="2" t="s">
+      <c r="N240" s="6" t="s">
         <v>1211</v>
       </c>
     </row>
     <row r="241">
-      <c r="A241" s="2" t="s">
+      <c r="A241" s="6" t="s">
         <v>1212</v>
       </c>
       <c r="B241" s="11" t="s">
@@ -15195,24 +15193,24 @@
       <c r="I241" s="12">
         <v>74.16</v>
       </c>
-      <c r="J241" s="2" t="s">
+      <c r="J241" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K241" s="2">
+      <c r="K241" s="6">
         <v>33380.0</v>
       </c>
-      <c r="L241" s="2" t="s">
+      <c r="L241" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M241" s="2" t="s">
+      <c r="M241" s="6" t="s">
         <v>1215</v>
       </c>
-      <c r="N241" s="2" t="s">
+      <c r="N241" s="6" t="s">
         <v>1216</v>
       </c>
     </row>
     <row r="242">
-      <c r="A242" s="2" t="s">
+      <c r="A242" s="6" t="s">
         <v>1217</v>
       </c>
       <c r="B242" s="11" t="s">
@@ -15239,24 +15237,24 @@
       <c r="I242" s="12">
         <v>75.41</v>
       </c>
-      <c r="J242" s="2" t="s">
+      <c r="J242" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K242" s="2">
+      <c r="K242" s="6">
         <v>33320.0</v>
       </c>
-      <c r="L242" s="2" t="s">
+      <c r="L242" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M242" s="2" t="s">
+      <c r="M242" s="6" t="s">
         <v>1220</v>
       </c>
-      <c r="N242" s="2" t="s">
+      <c r="N242" s="6" t="s">
         <v>1221</v>
       </c>
     </row>
     <row r="243">
-      <c r="A243" s="2" t="s">
+      <c r="A243" s="6" t="s">
         <v>1222</v>
       </c>
       <c r="B243" s="11" t="s">
@@ -15283,24 +15281,24 @@
       <c r="I243" s="12">
         <v>74.46</v>
       </c>
-      <c r="J243" s="2" t="s">
+      <c r="J243" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K243" s="2">
+      <c r="K243" s="6">
         <v>33340.0</v>
       </c>
-      <c r="L243" s="2" t="s">
+      <c r="L243" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M243" s="2" t="s">
+      <c r="M243" s="6" t="s">
         <v>1225</v>
       </c>
-      <c r="N243" s="2" t="s">
+      <c r="N243" s="6" t="s">
         <v>1226</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" s="2" t="s">
+      <c r="A244" s="6" t="s">
         <v>1227</v>
       </c>
       <c r="B244" s="11" t="s">
@@ -15327,24 +15325,24 @@
       <c r="I244" s="12">
         <v>76.11</v>
       </c>
-      <c r="J244" s="2" t="s">
+      <c r="J244" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K244" s="2">
+      <c r="K244" s="6">
         <v>33330.0</v>
       </c>
-      <c r="L244" s="2" t="s">
+      <c r="L244" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M244" s="2" t="s">
+      <c r="M244" s="6" t="s">
         <v>1230</v>
       </c>
-      <c r="N244" s="2" t="s">
+      <c r="N244" s="6" t="s">
         <v>1231</v>
       </c>
     </row>
     <row r="245">
-      <c r="A245" s="2" t="s">
+      <c r="A245" s="6" t="s">
         <v>1232</v>
       </c>
       <c r="B245" s="11" t="s">
@@ -15371,24 +15369,24 @@
       <c r="I245" s="12">
         <v>70.42</v>
       </c>
-      <c r="J245" s="2" t="s">
+      <c r="J245" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K245" s="2">
+      <c r="K245" s="6">
         <v>33370.0</v>
       </c>
-      <c r="L245" s="2" t="s">
+      <c r="L245" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M245" s="2" t="s">
+      <c r="M245" s="6" t="s">
         <v>1235</v>
       </c>
-      <c r="N245" s="2" t="s">
+      <c r="N245" s="6" t="s">
         <v>1236</v>
       </c>
     </row>
     <row r="246">
-      <c r="A246" s="2" t="s">
+      <c r="A246" s="6" t="s">
         <v>1237</v>
       </c>
       <c r="B246" s="11" t="s">
@@ -15415,24 +15413,24 @@
       <c r="I246" s="12">
         <v>74.32</v>
       </c>
-      <c r="J246" s="2" t="s">
+      <c r="J246" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K246" s="2">
+      <c r="K246" s="6">
         <v>33030.0</v>
       </c>
-      <c r="L246" s="2" t="s">
+      <c r="L246" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M246" s="2" t="s">
+      <c r="M246" s="6" t="s">
         <v>1240</v>
       </c>
-      <c r="N246" s="2" t="s">
+      <c r="N246" s="6" t="s">
         <v>1241</v>
       </c>
     </row>
     <row r="247">
-      <c r="A247" s="2" t="s">
+      <c r="A247" s="6" t="s">
         <v>1242</v>
       </c>
       <c r="B247" s="11" t="s">
@@ -15459,24 +15457,24 @@
       <c r="I247" s="12">
         <v>72.95</v>
       </c>
-      <c r="J247" s="2" t="s">
+      <c r="J247" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K247" s="2">
+      <c r="K247" s="6">
         <v>33390.0</v>
       </c>
-      <c r="L247" s="2" t="s">
+      <c r="L247" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M247" s="2" t="s">
+      <c r="M247" s="6" t="s">
         <v>1245</v>
       </c>
-      <c r="N247" s="2" t="s">
+      <c r="N247" s="6" t="s">
         <v>1246</v>
       </c>
     </row>
     <row r="248">
-      <c r="A248" s="2" t="s">
+      <c r="A248" s="6" t="s">
         <v>1247</v>
       </c>
       <c r="B248" s="11" t="s">
@@ -15503,24 +15501,24 @@
       <c r="I248" s="12">
         <v>72.34</v>
       </c>
-      <c r="J248" s="2" t="s">
+      <c r="J248" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K248" s="2">
+      <c r="K248" s="6">
         <v>33350.0</v>
       </c>
-      <c r="L248" s="2" t="s">
+      <c r="L248" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M248" s="2" t="s">
+      <c r="M248" s="6" t="s">
         <v>1250</v>
       </c>
-      <c r="N248" s="2" t="s">
+      <c r="N248" s="6" t="s">
         <v>1251</v>
       </c>
     </row>
     <row r="249">
-      <c r="A249" s="2" t="s">
+      <c r="A249" s="6" t="s">
         <v>1252</v>
       </c>
       <c r="B249" s="11" t="s">
@@ -15547,24 +15545,24 @@
       <c r="I249" s="12">
         <v>74.72</v>
       </c>
-      <c r="J249" s="2" t="s">
+      <c r="J249" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K249" s="2">
+      <c r="K249" s="6">
         <v>33310.0</v>
       </c>
-      <c r="L249" s="2" t="s">
+      <c r="L249" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M249" s="2" t="s">
+      <c r="M249" s="6" t="s">
         <v>1255</v>
       </c>
-      <c r="N249" s="2" t="s">
+      <c r="N249" s="6" t="s">
         <v>1256</v>
       </c>
     </row>
     <row r="250">
-      <c r="A250" s="2" t="s">
+      <c r="A250" s="6" t="s">
         <v>1257</v>
       </c>
       <c r="B250" s="11" t="s">
@@ -15591,24 +15589,24 @@
       <c r="I250" s="12">
         <v>76.2</v>
       </c>
-      <c r="J250" s="2" t="s">
+      <c r="J250" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K250" s="2">
+      <c r="K250" s="6">
         <v>33041.0</v>
       </c>
-      <c r="L250" s="2" t="s">
+      <c r="L250" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M250" s="2" t="s">
+      <c r="M250" s="6" t="s">
         <v>1260</v>
       </c>
-      <c r="N250" s="2" t="s">
+      <c r="N250" s="6" t="s">
         <v>1261</v>
       </c>
     </row>
     <row r="251">
-      <c r="A251" s="2" t="s">
+      <c r="A251" s="6" t="s">
         <v>1262</v>
       </c>
       <c r="B251" s="11" t="s">
@@ -15635,24 +15633,24 @@
       <c r="I251" s="12">
         <v>75.9</v>
       </c>
-      <c r="J251" s="2" t="s">
+      <c r="J251" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K251" s="2">
+      <c r="K251" s="6">
         <v>33043.0</v>
       </c>
-      <c r="L251" s="2" t="s">
+      <c r="L251" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M251" s="2" t="s">
+      <c r="M251" s="6" t="s">
         <v>1265</v>
       </c>
-      <c r="N251" s="2" t="s">
+      <c r="N251" s="6" t="s">
         <v>1266</v>
       </c>
     </row>
     <row r="252">
-      <c r="A252" s="2" t="s">
+      <c r="A252" s="6" t="s">
         <v>1267</v>
       </c>
       <c r="B252" s="11" t="s">
@@ -15679,19 +15677,19 @@
       <c r="I252" s="12">
         <v>73.48</v>
       </c>
-      <c r="J252" s="2" t="s">
+      <c r="J252" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="K252" s="2">
+      <c r="K252" s="6">
         <v>33020.0</v>
       </c>
-      <c r="L252" s="2" t="s">
+      <c r="L252" s="6" t="s">
         <v>1209</v>
       </c>
-      <c r="M252" s="2" t="s">
+      <c r="M252" s="6" t="s">
         <v>1270</v>
       </c>
-      <c r="N252" s="2" t="s">
+      <c r="N252" s="6" t="s">
         <v>1271</v>
       </c>
     </row>
